--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45907</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44461</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44581</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44287</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44266</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44287</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44589</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44927</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45397</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44847.71168981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44735.5222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45743</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45501.41740740741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45501.43387731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45243</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45037.58394675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44803.65809027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45538.83505787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44386</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45727.35804398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>45798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>45729</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45705</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>45294</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45264.3956712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45419.63671296297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45807</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45531.45243055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45194</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45811.35489583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45812.63760416667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45531</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45811.48915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45789</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45811.47222222222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45811.47616898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45163</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45037.57375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45756.64131944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45568</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44966.65414351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44510.59939814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>45252</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45747</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>45747.54640046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>45629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45683.88302083333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45734</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45826.41162037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45827</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45232</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44442.50498842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45548</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45279.5659375</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45271.46321759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45720</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45310</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45923</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45923.56116898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45730</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45833.65369212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45709.605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45349.71133101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44657.619375</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44452.61798611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45931</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45931</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45931</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45931</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45931</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45931</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45931</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45931</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45931</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45420.38435185186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45838.33539351852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44825.60538194444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>45247</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45579</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45309</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>45709</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45709</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45939</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>45271.87197916667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>45945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>45757.47975694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>45842</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>45842</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>45112</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45531</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45245</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44936</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45953</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45953</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44395</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45956.7075</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45956.72236111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45956.7144675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45681.75200231482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44571.57540509259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44942</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44581.85012731481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44581.86648148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45877</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45694</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45280.55791666666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45961.3575462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45961.36053240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45965.74945601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>45671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45642.33300925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45971.49379629629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44489</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>46020.32520833334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>45527.68989583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45527.69265046297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45427.49891203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45378</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>45978.80706018519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45978.65318287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45709</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>45985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44995.49393518519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45978</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45640</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44578.78197916667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>46031.57333333333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44489</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44991</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45384.35752314814</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45742.64630787037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45098.45302083333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>45642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45435.69123842593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>45109</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45910</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>45910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45525</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>46041.44421296296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45404.50292824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45399.34143518518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45399</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45747</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>46001.56537037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44623</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>45378</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44959</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45694</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45378</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45548</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45061.56636574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44896</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44481.49040509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>46048.5056712963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45586.37576388889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45616</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45287</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45287</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44927.65268518519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45754.88141203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44592.81854166667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45271.45626157407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45460</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44511.61383101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>45463</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44941</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45616</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45601.45766203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44915.56481481482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45582.49783564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45684</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45574</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45574.53435185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45436</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44874.4543287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45600.57181712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45413</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45761</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44587</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45574.54210648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45541</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45541</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45484</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44427</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44930</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45636</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45091.60797453704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45617</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45713</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45713</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45520</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44907.48916666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45253</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45367.43570601852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44792.52918981481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45041</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44544.50324074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45460.44770833333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45030</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45694</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45734</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45448</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45558</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45671.57612268518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>45704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45734</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45392</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44655</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45367.44355324074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>44487</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>44299</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45310.46356481482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45397.45333333333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45699</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44803</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44964.41993055555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45713</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45436</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45574</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45642.32818287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45616</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>44775</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45207</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44565</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45636</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44746</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45398.85325231482</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45287</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45629</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45194.64255787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45797.39939814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45797.42086805555</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>45907</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44461</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44581</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44287</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44266</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44287</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44589</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44927</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45397</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44847.71168981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44735.5222337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45743</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45501.41740740741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45501.43387731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45243</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45037.58394675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44803.65809027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45538.83505787037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44386</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45727.35804398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>45798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>45729</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45705</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>45294</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45264.3956712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45419.63671296297</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45807</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45531.45243055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45194</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45811.35489583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45812.63760416667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45531</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45811.48915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45789</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45811.47222222222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45811.47616898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45163</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45616</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45037.57375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45756.64131944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>45897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>45568</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>45753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44966.65414351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44510.59939814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>45252</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45747</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>45747.54640046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>45547</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>45629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45683.88302083333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>45734</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>45826.41162037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>45827</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45232</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44315</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>44442.50498842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45548</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>45279.5659375</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45271.46321759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45720</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45310</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45923</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45923.56116898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>45730</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45833.65369212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45709.605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45349.71133101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>44657.619375</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45287</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44452.61798611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45931</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45931</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45931</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45931</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45931</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45839</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45931</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45931</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45931</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45931</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45420.38435185186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>45838.33539351852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44825.60538194444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>45247</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45579</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45309</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>45709</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>45709</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45939</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>45271.87197916667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>45945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>45757.47975694444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>45842</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>45842</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>45112</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45531</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45245</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44936</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45953</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45953</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45078</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44395</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45956.7075</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45956.72236111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45956.7144675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45681.75200231482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44571.57540509259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44942</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44581.85012731481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44581.86648148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>45877</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45694</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>45280.55791666666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>45961.3575462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45961.36053240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45965.74945601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>45371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>45671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>45642.33300925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12418,7 +12418,7 @@
         <v>45971.49379629629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>44680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44489</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>46020.32520833334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>45527.68989583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45527.69265046297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45427.49891203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45378</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>45978.80706018519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>45978.65318287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45709</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>45985</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44995.49393518519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45978</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45640</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44578.78197916667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>46031.57333333333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44489</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44991</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45384.35752314814</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45742.64630787037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45098.45302083333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>45642</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45435.69123842593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>45109</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45910</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>45910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45525</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>46041.44421296296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44942</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45404.50292824074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44550</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45399.34143518518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45399</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45747</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>46001.56537037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44623</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>45378</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44959</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45694</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45629</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45378</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45548</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45061.56636574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44896</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44481.49040509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>46048.5056712963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45586.37576388889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45616</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45287</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45287</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44927.65268518519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45754.88141203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45742</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44592.81854166667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45271.45626157407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45460</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44511.61383101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>45463</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44941</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45616</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45601.45766203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44915.56481481482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45582.49783564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45684</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45574</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45574.53435185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>45436</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44874.4543287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45600.57181712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45413</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45761</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44587</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45574.54210648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45621</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45541</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45541</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45229</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45484</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44427</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44930</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45636</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45091.60797453704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45617</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45713</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45713</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45520</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44907.48916666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45253</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45367.43570601852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44792.52918981481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45041</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44544.50324074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45460.44770833333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45030</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45694</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45734</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45448</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45558</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45671.57612268518</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>45704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45734</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45392</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44655</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45367.44355324074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>44487</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>44299</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45310.46356481482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>45397.45333333333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45699</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44803</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44964.41993055555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45713</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45436</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45574</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45642.32818287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45616</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>44775</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45207</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44565</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45636</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44746</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45398.85325231482</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45287</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45784</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45629</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45194.64255787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45797.39939814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45797.42086805555</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38039-2024</t>
+          <t>A 62010-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45544</v>
+        <v>44914</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -804,45 +804,45 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 8909-2025</t>
+          <t>A 9558-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45713</v>
+        <v>44251</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -854,8 +854,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>22.6</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -889,31 +894,31 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +932,7 @@
         <v>45907</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,14 +1015,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56642-2022</t>
+          <t>A 8909-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44893</v>
+        <v>45713</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,23 +1034,18 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>22.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1069,388 +1069,388 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Desmeknopp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 41526-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hökuggla</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 26849-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45093</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41526-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hökuggla</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 62010-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44914</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 9558-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44251</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ängsmetallvinge</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44461</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2651,14 +2651,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1330-2022</t>
+          <t>A 2993-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44572</v>
+        <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2708,14 +2708,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2993-2022</t>
+          <t>A 2997-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2765,14 +2765,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2997-2022</t>
+          <t>A 2998-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2822,14 +2822,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2998-2022</t>
+          <t>A 1330-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 70942-2021</t>
+          <t>A 16169-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44538</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3050,14 +3050,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16169-2021</t>
+          <t>A 48938-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44287</v>
+        <v>44453.34428240741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3107,14 +3107,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16167-2021</t>
+          <t>A 70942-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44287</v>
+        <v>44538</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3164,14 +3164,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48938-2021</t>
+          <t>A 16167-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44453.34428240741</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3221,14 +3221,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12424-2021</t>
+          <t>A 16168-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44266</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3278,14 +3278,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16168-2021</t>
+          <t>A 12424-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44287</v>
+        <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3563,14 +3563,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 4450-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 4450-2022</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44589</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4884,14 +4884,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>44348</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4941,14 +4941,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44348</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4998,14 +4998,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45378</v>
+        <v>45617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5055,14 +5055,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>45229</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5112,14 +5112,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45252</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5169,14 +5169,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44927</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5226,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45397</v>
+        <v>44315</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5283,14 +5283,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45729</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5340,14 +5340,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44847</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5397,14 +5397,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45734</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5454,14 +5454,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45741</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5511,14 +5511,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45743</v>
+        <v>45413</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5568,14 +5568,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>44847</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5625,14 +5625,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>45252</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5678,18 +5678,38 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="inlineStr"/>
+      <c r="U85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y85">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45243</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5702,7 +5722,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5739,14 +5759,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5759,7 +5779,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5796,14 +5816,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>45399</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5816,7 +5836,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5853,14 +5873,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5873,7 +5893,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>17.9</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5910,14 +5930,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44386</v>
+        <v>44847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5929,13 +5949,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5972,14 +5987,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45749</v>
+        <v>44927</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5992,7 +6007,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6029,14 +6044,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45287</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6086,14 +6101,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45798</v>
+        <v>45287</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6106,7 +6121,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6143,14 +6158,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45729</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6163,7 +6178,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6200,14 +6215,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45705</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6220,7 +6235,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6257,14 +6272,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44386</v>
+        <v>45294</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6282,7 +6297,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6319,14 +6334,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45294</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6338,13 +6353,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6381,14 +6391,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44754</v>
+        <v>44386</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6406,7 +6416,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6443,14 +6453,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45734</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6463,7 +6473,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6500,14 +6510,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45531</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6520,7 +6530,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6557,14 +6567,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45807</v>
+        <v>45436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6577,7 +6587,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6614,14 +6624,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6634,7 +6644,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6671,14 +6681,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45538</v>
+        <v>45448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6690,8 +6700,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6728,14 +6743,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45194</v>
+        <v>44587</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6748,7 +6763,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6785,14 +6800,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6805,7 +6820,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6842,14 +6857,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>44487</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6862,7 +6877,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6899,14 +6914,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45531</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6919,7 +6934,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6956,14 +6971,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45747</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6976,7 +6991,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7013,14 +7028,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45789</v>
+        <v>45636</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7033,7 +7048,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7070,14 +7085,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>44896</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7089,8 +7104,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7127,14 +7147,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7147,7 +7167,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7184,14 +7204,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45163</v>
+        <v>45541</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7204,7 +7224,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7241,14 +7261,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45616</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7261,7 +7281,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7298,14 +7318,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45827</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7318,7 +7338,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7355,14 +7375,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>44386</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7374,8 +7394,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7412,14 +7437,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45897</v>
+        <v>44942</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7432,7 +7457,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7469,14 +7494,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45897</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7489,7 +7514,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7526,14 +7551,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45568</v>
+        <v>45548</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,8 +7570,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7583,14 +7613,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45753</v>
+        <v>45831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7603,7 +7633,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7640,14 +7670,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7660,7 +7690,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7697,14 +7727,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45378</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7717,7 +7747,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7754,14 +7784,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45252</v>
+        <v>45378</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7774,7 +7804,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7807,38 +7837,18 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="U122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45747</v>
+        <v>45705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7851,7 +7861,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7888,14 +7898,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7908,7 +7918,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>11.5</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7945,14 +7955,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45547</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7965,7 +7975,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8002,14 +8012,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45629</v>
+        <v>45460</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8022,7 +8032,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8059,14 +8069,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45839</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8078,8 +8088,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8116,14 +8131,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45734</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8136,7 +8151,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8173,14 +8188,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>44942</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8193,7 +8208,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8230,14 +8245,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45827</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8250,7 +8265,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8287,14 +8302,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45232</v>
+        <v>44657.619375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8307,7 +8322,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8344,14 +8359,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44315</v>
+        <v>44959</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8364,7 +8379,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8401,14 +8416,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>45842</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8421,7 +8436,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8458,14 +8473,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45831</v>
+        <v>45842</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8478,7 +8493,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8515,14 +8530,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45548</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8534,13 +8549,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8577,14 +8587,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45897</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8597,7 +8607,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8634,14 +8644,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45897</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8654,7 +8664,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8691,14 +8701,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45720</v>
+        <v>45531</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8710,13 +8720,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8753,14 +8758,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45310</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8773,7 +8778,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8810,14 +8815,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45923</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8830,7 +8835,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45747</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8887,7 +8892,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8924,14 +8929,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45730</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8944,7 +8949,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8981,14 +8986,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45436</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9001,7 +9006,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9038,14 +9043,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45709.605</v>
+        <v>45629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9063,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9095,14 +9100,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45166</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9114,8 +9119,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>24.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9152,14 +9162,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44657.619375</v>
+        <v>44299</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9172,7 +9182,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9209,14 +9219,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45287</v>
+        <v>45616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9229,7 +9239,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9266,14 +9276,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45041</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9285,8 +9295,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9323,14 +9338,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45931</v>
+        <v>45519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9343,7 +9358,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9380,14 +9395,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45931</v>
+        <v>45877</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9400,7 +9415,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9437,14 +9452,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45931</v>
+        <v>45713</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9457,7 +9472,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9494,14 +9509,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45931</v>
+        <v>45713</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9514,7 +9529,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9551,14 +9566,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45931</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9571,7 +9586,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>9.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9608,14 +9623,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9628,7 +9643,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9665,14 +9680,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45931</v>
+        <v>45694</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9685,7 +9700,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9722,14 +9737,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45839</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9741,13 +9756,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9784,14 +9794,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45931</v>
+        <v>45636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9804,7 +9814,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9841,14 +9851,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45931</v>
+        <v>45720</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9861,7 +9871,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9898,14 +9908,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45931</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9918,7 +9928,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9955,14 +9965,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45931</v>
+        <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9975,7 +9985,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10012,14 +10022,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10032,7 +10042,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10069,14 +10079,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45931</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10089,7 +10099,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10126,14 +10136,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>45931</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10146,7 +10156,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10183,14 +10193,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44768</v>
+        <v>45931</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10203,7 +10213,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10240,14 +10250,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45934</v>
+        <v>45931</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10260,7 +10270,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10297,14 +10307,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45247</v>
+        <v>45931</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10317,7 +10327,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10354,14 +10364,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45579</v>
+        <v>45931</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10374,7 +10384,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10411,14 +10421,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45309</v>
+        <v>45931</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10468,14 +10478,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45709</v>
+        <v>45931</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10488,7 +10498,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10525,14 +10535,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45709</v>
+        <v>45931</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10545,7 +10555,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10582,14 +10592,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45939</v>
+        <v>45931</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10602,7 +10612,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10639,14 +10649,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45230</v>
+        <v>45931</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10659,7 +10669,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10696,14 +10706,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45378</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10716,7 +10726,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10753,14 +10763,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45945</v>
+        <v>45743</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10773,7 +10783,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10810,14 +10820,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45934</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10830,7 +10840,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10867,14 +10877,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45842</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10887,7 +10897,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10924,14 +10934,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45842</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10944,7 +10954,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10981,14 +10991,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45112</v>
+        <v>45741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11001,7 +11011,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>10.1</v>
+        <v>4.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11038,14 +11048,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45531</v>
+        <v>45078</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11058,7 +11068,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11095,14 +11105,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45245</v>
+        <v>45699</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11115,7 +11125,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11152,14 +11162,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44936</v>
+        <v>45939</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11172,7 +11182,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11209,14 +11219,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45953</v>
+        <v>45709</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11229,7 +11239,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11266,14 +11276,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45953</v>
+        <v>45709.605</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11286,7 +11296,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11323,14 +11333,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45078</v>
+        <v>45232</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11343,7 +11353,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11380,14 +11390,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44395</v>
+        <v>44565</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11400,7 +11410,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11437,14 +11447,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45548</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11456,8 +11466,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11494,14 +11509,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45945</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11514,7 +11529,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11551,14 +11566,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11571,7 +11586,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11608,14 +11623,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>44427</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11628,7 +11643,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11665,14 +11680,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11685,7 +11700,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11722,14 +11737,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44942</v>
+        <v>45392</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11742,7 +11757,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11779,14 +11794,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>45230</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11799,7 +11814,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11836,14 +11851,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>45037.57375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11856,7 +11871,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11893,14 +11908,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45877</v>
+        <v>44754</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11912,8 +11927,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11950,14 +11970,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45694</v>
+        <v>45953</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11970,7 +11990,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12007,14 +12027,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45953</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12027,7 +12047,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12064,14 +12084,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12084,7 +12104,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12121,14 +12141,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12141,7 +12161,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12178,14 +12198,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12198,7 +12218,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12235,14 +12255,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45371</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12254,13 +12274,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12297,14 +12312,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45671</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12317,7 +12332,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12354,14 +12369,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>44936</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12374,7 +12389,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12411,14 +12426,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12431,7 +12446,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12468,14 +12483,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44680</v>
+        <v>45956.7075</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12488,7 +12503,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12525,14 +12540,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44489</v>
+        <v>45112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12545,7 +12560,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.1</v>
+        <v>10.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12582,14 +12597,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>44266</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12601,8 +12616,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12639,14 +12659,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12659,7 +12679,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12696,14 +12716,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12716,7 +12736,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12753,14 +12773,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12773,7 +12793,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12810,14 +12830,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45378</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12830,7 +12850,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12867,14 +12887,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12886,13 +12906,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12929,14 +12944,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>45558</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12948,13 +12963,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12991,14 +13001,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45709</v>
+        <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13011,7 +13021,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13048,14 +13058,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45985</v>
+        <v>45463</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13067,8 +13077,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13105,14 +13120,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9570-2021</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44251</v>
+        <v>45397</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13124,13 +13139,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13167,14 +13177,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44847</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13187,7 +13197,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13224,14 +13234,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13244,7 +13254,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>17.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13281,14 +13291,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45978</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13300,13 +13310,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13343,14 +13348,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44266</v>
+        <v>44991</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13362,13 +13367,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13405,14 +13405,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45640</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13462,14 +13462,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13519,14 +13519,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45574</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13576,14 +13576,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44489</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13633,14 +13633,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44991</v>
+        <v>45463</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13652,8 +13652,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13690,14 +13695,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13709,8 +13714,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13747,14 +13757,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13767,7 +13777,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>8.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13804,14 +13814,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13823,8 +13833,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13861,14 +13876,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45642</v>
+        <v>44655</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13881,7 +13896,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13918,14 +13933,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>45709</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13938,7 +13953,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13975,14 +13990,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45109</v>
+        <v>45985</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13995,7 +14010,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14032,14 +14047,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45910</v>
+        <v>45713</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14052,7 +14067,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14089,14 +14104,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45910</v>
+        <v>45978</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14108,8 +14123,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14146,14 +14166,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45525</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14166,7 +14186,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14203,14 +14223,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14223,7 +14243,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14260,14 +14280,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44942</v>
+        <v>45484</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14280,7 +14300,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14317,14 +14337,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45519</v>
+        <v>45579</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14337,7 +14357,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14374,14 +14394,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14394,7 +14414,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14431,14 +14451,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44550</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14451,7 +14471,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14488,14 +14508,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14508,7 +14528,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14545,14 +14565,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45399</v>
+        <v>45910</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14565,7 +14585,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14602,14 +14622,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45747</v>
+        <v>45910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14622,7 +14642,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14659,14 +14679,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14679,7 +14699,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14716,14 +14736,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44623</v>
+        <v>45371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14735,8 +14755,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14773,14 +14798,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45378</v>
+        <v>45207</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14793,7 +14818,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14830,14 +14855,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44959</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14850,7 +14875,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14887,14 +14912,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45694</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14907,7 +14932,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14944,14 +14969,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45629</v>
+        <v>45709</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14964,7 +14989,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15001,14 +15026,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45378</v>
+        <v>45704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15021,7 +15046,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15058,14 +15083,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45548</v>
+        <v>44722</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15077,13 +15102,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15127,7 +15147,7 @@
         <v>45061.56636574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15177,14 +15197,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44896</v>
+        <v>45621</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15196,13 +15216,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15239,14 +15254,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15259,7 +15274,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15296,14 +15311,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45616</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15316,7 +15331,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15353,14 +15368,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15373,7 +15388,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.7</v>
+        <v>7.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15410,14 +15425,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45616</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15430,7 +15445,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15467,14 +15482,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45287</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15487,7 +15502,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15524,14 +15539,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45287</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15544,7 +15559,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15581,14 +15596,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 9570-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>44251</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15600,8 +15615,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15638,14 +15658,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45642</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15658,7 +15678,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15695,14 +15715,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45742</v>
+        <v>45287</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15715,7 +15735,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>4</v>
+        <v>14.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15752,14 +15772,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45753</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15772,7 +15792,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15809,14 +15829,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15829,7 +15849,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15866,14 +15886,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45460</v>
+        <v>44746</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15885,8 +15905,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15923,14 +15948,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45166</v>
+        <v>45247</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15942,13 +15967,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>24.9</v>
+        <v>1.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15985,14 +16005,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45525</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16005,7 +16025,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16042,14 +16062,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45463</v>
+        <v>45378</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16061,13 +16081,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16104,14 +16119,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44941</v>
+        <v>45761</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16124,7 +16139,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16161,14 +16176,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45616</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16181,7 +16196,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16218,14 +16233,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16238,7 +16253,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16275,14 +16290,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>44550</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16295,7 +16310,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16332,14 +16347,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45734</v>
+        <v>45243</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16352,7 +16367,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16389,14 +16404,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16409,7 +16424,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16446,14 +16461,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45684</v>
+        <v>44680</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,13 +16480,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16508,14 +16518,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45574</v>
+        <v>44803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16528,7 +16538,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16565,14 +16575,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45309</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16585,7 +16595,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16622,14 +16632,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45436</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16642,7 +16652,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16679,14 +16689,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45245</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16699,7 +16709,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16736,14 +16746,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16756,7 +16766,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16793,14 +16803,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45413</v>
+        <v>45671</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16813,7 +16823,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16850,14 +16860,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45761</v>
+        <v>45720</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16869,8 +16879,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16907,14 +16922,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44587</v>
+        <v>44775</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16927,7 +16942,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16964,14 +16979,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16984,7 +16999,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17021,14 +17036,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45621</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17041,7 +17056,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17078,14 +17093,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45541</v>
+        <v>44941</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17098,7 +17113,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17135,14 +17150,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45541</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17155,7 +17170,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17192,14 +17207,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45229</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17212,7 +17227,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17249,14 +17264,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45484</v>
+        <v>45547</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17269,7 +17284,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17306,14 +17321,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44722</v>
+        <v>45640</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17326,7 +17341,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17363,14 +17378,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44427</v>
+        <v>45310</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17383,7 +17398,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17420,14 +17435,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44930</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17440,7 +17455,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17477,14 +17492,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45636</v>
+        <v>45253</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17497,7 +17512,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17534,14 +17549,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17554,7 +17569,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17591,14 +17606,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45617</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17611,7 +17626,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17648,14 +17663,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45713</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17668,7 +17683,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17705,14 +17720,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45713</v>
+        <v>45574</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17725,7 +17740,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17762,14 +17777,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45520</v>
+        <v>44395</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17782,7 +17797,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17819,14 +17834,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45616</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17839,7 +17854,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17876,14 +17891,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45253</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17896,7 +17911,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17933,14 +17948,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>44623</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17953,7 +17968,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17990,14 +18005,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>45684</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18009,8 +18024,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18047,14 +18067,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45041</v>
+        <v>44489</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18066,13 +18086,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18109,14 +18124,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18129,7 +18144,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>9.6</v>
+        <v>0.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18166,14 +18181,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>45109</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18186,7 +18201,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18223,14 +18238,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45030</v>
+        <v>45730</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18243,7 +18258,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18280,14 +18295,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45694</v>
+        <v>45616</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18300,7 +18315,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18337,14 +18352,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45734</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18357,7 +18372,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18394,14 +18409,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45463</v>
+        <v>45520</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18413,13 +18428,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18456,14 +18466,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45448</v>
+        <v>45030</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,13 +18485,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G308" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18518,14 +18523,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45558</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18538,7 +18543,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18575,14 +18580,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45568</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18595,7 +18600,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18632,14 +18637,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45704</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18652,7 +18657,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18689,14 +18694,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45734</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18709,7 +18714,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18746,14 +18751,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45392</v>
+        <v>45252</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18766,7 +18771,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18803,14 +18808,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44655</v>
+        <v>44768</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18823,7 +18828,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18860,14 +18865,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>45694</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18880,7 +18885,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18917,14 +18922,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44487</v>
+        <v>45742</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18937,7 +18942,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18974,14 +18979,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44299</v>
+        <v>45734</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18994,7 +18999,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19031,14 +19036,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>45694</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19051,7 +19056,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19088,14 +19093,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45720</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19108,7 +19113,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19145,14 +19150,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45749</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19165,7 +19170,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19202,14 +19207,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45699</v>
+        <v>45541</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19222,7 +19227,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19259,14 +19264,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44803</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19279,7 +19284,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19316,14 +19321,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>45784</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19336,7 +19341,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19373,14 +19378,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45713</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19393,7 +19398,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19430,14 +19435,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45436</v>
+        <v>45287</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19450,7 +19455,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19487,14 +19492,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45574</v>
+        <v>45629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19507,7 +19512,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19544,14 +19549,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19564,7 +19569,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19601,14 +19606,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45616</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19621,7 +19626,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19658,14 +19663,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44775</v>
+        <v>45798</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19678,7 +19683,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19715,14 +19720,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45207</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19735,7 +19740,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19772,14 +19777,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44565</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19792,7 +19797,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19829,14 +19834,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45636</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19886,14 +19891,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44746</v>
+        <v>45789</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,13 +19910,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G333" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19948,14 +19948,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>45807</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20005,14 +20005,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45287</v>
+        <v>45194</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20062,14 +20062,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45784</v>
+        <v>45538</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20119,14 +20119,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45629</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20176,14 +20176,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20233,14 +20233,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20290,14 +20290,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38039-2024</t>
+          <t>A 62010-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45544</v>
+        <v>44914</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -804,384 +804,379 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 9558-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44251</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26849-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 8909-2025</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45713</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>22.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Desmeknopp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 56642-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44893</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26849-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45093</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1192,7 +1187,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,14 +1274,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 62010-2022</t>
+          <t>A 56642-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44914</v>
+        <v>44893</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1298,8 +1293,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,45 +1333,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 9558-2021</t>
+          <t>A 42668-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44251</v>
+        <v>45907</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1385,20 +1385,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1423,31 +1423,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ängsmetallvinge</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
         <v/>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,14 +1739,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15437-2021</t>
+          <t>A 61638-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44285.37357638889</v>
+        <v>44501</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1796,14 +1796,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61638-2021</t>
+          <t>A 15437-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44501</v>
+        <v>44285.37357638889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1853,14 +1853,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15919-2021</t>
+          <t>A 38635-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44287</v>
+        <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1910,14 +1910,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38635-2021</t>
+          <t>A 68728-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44410</v>
+        <v>44529.75387731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1967,14 +1967,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 68728-2021</t>
+          <t>A 15919-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44529.75387731481</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2024,14 +2024,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5415-2022</t>
+          <t>A 24765-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44594</v>
+        <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2081,14 +2081,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24765-2021</t>
+          <t>A 5415-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44340.60861111111</v>
+        <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55070-2021</t>
+          <t>A 46295-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44474</v>
+        <v>44847</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46295-2022</t>
+          <t>A 55070-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44847</v>
+        <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2366,14 +2366,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36302-2022</t>
+          <t>A 57069-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44803.65599537037</v>
+        <v>44482.56950231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2423,14 +2423,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57069-2021</t>
+          <t>A 36302-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44482.56950231481</v>
+        <v>44803.65599537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2651,14 +2651,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2993-2022</t>
+          <t>A 1330-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2708,14 +2708,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2997-2022</t>
+          <t>A 2993-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2765,14 +2765,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2998-2022</t>
+          <t>A 2997-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2822,14 +2822,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1330-2022</t>
+          <t>A 2998-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44572</v>
+        <v>44581</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>7.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3392,14 +3392,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21378-2021</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44320</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3449,14 +3449,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32368-2021</t>
+          <t>A 66809-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44371</v>
+        <v>44522.37934027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>13.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3506,14 +3506,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43667-2021</t>
+          <t>A 21378-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44433</v>
+        <v>44320</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3563,14 +3563,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4450-2022</t>
+          <t>A 55059-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44589</v>
+        <v>44474.6218287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 64552-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44511.63989583333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 65900-2021</t>
+          <t>A 7653-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44517.4383912037</v>
+        <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3848,14 +3848,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40107-2022</t>
+          <t>A 32368-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44820.49023148148</v>
+        <v>44371</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,13 +3867,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3910,14 +3905,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4448-2022</t>
+          <t>A 48787-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44589</v>
+        <v>44859.60792824074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3930,7 +3925,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3967,14 +3962,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55059-2021</t>
+          <t>A 62135-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44474.6218287037</v>
+        <v>44502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3987,7 +3982,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4024,14 +4019,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64552-2021</t>
+          <t>A 73022-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44511.63989583333</v>
+        <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4044,7 +4039,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4081,14 +4076,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62135-2021</t>
+          <t>A 43667-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44502</v>
+        <v>44433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4101,7 +4096,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4138,14 +4133,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 66809-2021</t>
+          <t>A 57065-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44522.37934027778</v>
+        <v>44482.56591435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>13.7</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4195,14 +4190,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7653-2022</t>
+          <t>A 30787-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44607</v>
+        <v>44365.49597222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4215,7 +4210,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>11.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4252,14 +4247,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48787-2022</t>
+          <t>A 33907-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44859.60792824074</v>
+        <v>44790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4271,8 +4266,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4309,14 +4309,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73022-2021</t>
+          <t>A 52526-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44550</v>
+        <v>44466</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4366,14 +4366,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33907-2022</t>
+          <t>A 4450-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44790</v>
+        <v>44589</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4385,13 +4385,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4435,7 +4430,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,14 +4480,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57065-2021</t>
+          <t>A 37962-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44482.56591435185</v>
+        <v>44811</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4505,7 +4500,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4542,14 +4537,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52526-2021</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44466</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4562,7 +4557,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4599,14 +4594,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30787-2021</t>
+          <t>A 71728-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44365.49597222222</v>
+        <v>44543.45789351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4619,7 +4614,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>11.7</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4656,14 +4651,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37962-2022</t>
+          <t>A 65891-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44811</v>
+        <v>44517.43024305555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,14 +4708,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>45232</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4733,7 +4728,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4770,14 +4765,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 71728-2021</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44543.45789351852</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4790,7 +4785,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4827,14 +4822,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 65891-2021</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44517.43024305555</v>
+        <v>44348</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4842,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4884,14 +4879,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44348</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4904,7 +4899,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4941,14 +4936,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>44565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4961,7 +4956,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4998,14 +4993,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44489</v>
+        <v>45548</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5017,8 +5012,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5055,14 +5055,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45897</v>
+        <v>45617</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5112,14 +5112,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 65900-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44386</v>
+        <v>44517.4383912037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5131,13 +5131,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5174,14 +5169,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44299</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5194,7 +5189,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5231,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45897</v>
+        <v>44427</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5251,7 +5246,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5288,14 +5283,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45378</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5308,7 +5303,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5345,14 +5340,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>45229</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5365,7 +5360,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5402,14 +5397,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45720</v>
+        <v>45294</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5421,8 +5416,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5459,14 +5459,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5516,14 +5516,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5573,14 +5573,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45699</v>
+        <v>45392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5630,14 +5630,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44803</v>
+        <v>45531</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5687,14 +5687,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45252</v>
+        <v>45230</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5744,14 +5744,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45037.57375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5801,14 +5801,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5858,14 +5858,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713</v>
+        <v>44754</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5877,8 +5877,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5915,14 +5920,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45436</v>
+        <v>44386</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5932,6 +5937,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>KIL</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -5972,14 +5982,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45574</v>
+        <v>45729</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5992,7 +6002,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6029,14 +6039,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44927</v>
+        <v>45734</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6049,7 +6059,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6086,14 +6096,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45397</v>
+        <v>44315</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6106,7 +6116,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6143,14 +6153,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45436</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6163,7 +6173,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6200,14 +6210,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44847</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6257,14 +6267,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>44487</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6314,14 +6324,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45616</v>
+        <v>45734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6334,7 +6344,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6371,14 +6381,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44775</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6391,7 +6401,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6428,14 +6438,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45207</v>
+        <v>44936</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6448,7 +6458,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6485,14 +6495,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44565</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6505,7 +6515,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6542,14 +6552,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45636</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6562,7 +6572,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6599,14 +6609,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45741</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6619,7 +6629,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6656,14 +6666,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44746</v>
+        <v>45112</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6675,13 +6685,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>10.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6718,14 +6723,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45734</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6738,7 +6743,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6775,14 +6780,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45747</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6795,7 +6800,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6832,14 +6837,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>44266</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6851,8 +6856,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>11.5</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6889,14 +6899,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45629</v>
+        <v>45413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6909,7 +6919,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6946,14 +6956,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45252</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6966,7 +6976,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6999,18 +7009,38 @@
         <v>0</v>
       </c>
       <c r="R108" s="2" t="inlineStr"/>
+      <c r="U108">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V108">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W108">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X108">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y108">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7023,7 +7053,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7060,14 +7090,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45243</v>
+        <v>45448</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7079,8 +7109,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7117,14 +7152,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>44847</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7137,7 +7172,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7174,14 +7209,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 40107-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45287</v>
+        <v>44820.49023148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7193,8 +7228,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7231,14 +7271,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45784</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7251,7 +7291,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7288,14 +7328,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45629</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7308,7 +7348,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7345,14 +7385,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45743</v>
+        <v>45399</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7365,7 +7405,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7402,14 +7442,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7422,7 +7462,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7459,14 +7499,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>44930</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7479,7 +7519,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>17.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7516,14 +7556,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7536,7 +7576,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7573,14 +7613,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45749</v>
+        <v>44847</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7593,7 +7633,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7630,14 +7670,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45729</v>
+        <v>44587</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7650,7 +7690,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7687,14 +7727,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 4448-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45705</v>
+        <v>44589</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7707,7 +7747,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7744,14 +7784,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44386</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7763,13 +7803,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7806,14 +7841,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45294</v>
+        <v>44927</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7825,13 +7860,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7868,14 +7898,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45287</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7888,7 +7918,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7925,14 +7955,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44754</v>
+        <v>45287</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7944,13 +7974,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7987,14 +8012,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8044,14 +8069,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8089,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8101,14 +8126,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45163</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8146,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8158,14 +8183,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45463</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8177,8 +8202,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8215,14 +8245,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45397</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8265,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8272,14 +8302,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45798</v>
+        <v>45747</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8322,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8329,14 +8359,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45531</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8349,7 +8379,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8386,14 +8416,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45163</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8406,7 +8436,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>17.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8443,14 +8473,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45923</v>
+        <v>45636</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8463,7 +8493,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8500,14 +8530,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>44991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8520,7 +8550,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8557,14 +8587,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45616</v>
+        <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8576,8 +8606,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8614,14 +8649,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8634,7 +8669,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8671,14 +8706,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8691,7 +8726,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8728,14 +8763,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45807</v>
+        <v>45574</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8748,7 +8783,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8785,14 +8820,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8805,7 +8840,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8842,14 +8877,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45538</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8862,7 +8897,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8899,14 +8934,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45194</v>
+        <v>45789</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8919,7 +8954,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8956,14 +8991,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45541</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8976,7 +9011,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9013,14 +9048,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45568</v>
+        <v>45807</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9033,7 +9068,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9070,14 +9105,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45194</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9090,7 +9125,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9127,14 +9162,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45789</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9147,7 +9182,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9184,14 +9219,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>45538</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9204,7 +9239,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9241,14 +9276,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>44942</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9298,14 +9333,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45753</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9318,7 +9353,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9355,14 +9390,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9375,7 +9410,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9412,14 +9447,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9432,7 +9467,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9469,14 +9504,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45252</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9489,7 +9524,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9522,38 +9557,18 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="inlineStr"/>
-      <c r="U152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9565,8 +9580,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9603,14 +9623,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9623,7 +9643,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9660,14 +9680,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45734</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9680,7 +9700,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9717,14 +9737,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45232</v>
+        <v>45463</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9736,8 +9756,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9774,14 +9799,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44315</v>
+        <v>45378</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9831,14 +9856,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>45378</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9851,7 +9876,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9888,14 +9913,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45705</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9908,7 +9933,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9945,14 +9970,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45548</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9964,13 +9989,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10007,14 +10027,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45827</v>
+        <v>45460</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10027,7 +10047,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10064,14 +10084,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10084,7 +10104,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10121,14 +10141,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>44942</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10141,7 +10161,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10178,14 +10198,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45720</v>
+        <v>44655</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10197,13 +10217,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10240,14 +10255,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45931</v>
+        <v>45709</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10260,7 +10275,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10297,14 +10312,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45931</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10317,7 +10332,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10354,14 +10369,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45931</v>
+        <v>44657.619375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10374,7 +10389,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10411,14 +10426,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45931</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10431,7 +10446,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10468,14 +10483,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45310</v>
+        <v>44959</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10488,7 +10503,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10525,14 +10540,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45831</v>
+        <v>45713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10545,7 +10560,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10582,14 +10597,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45730</v>
+        <v>44941</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10602,7 +10617,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10639,14 +10654,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45931</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10659,7 +10674,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10696,14 +10711,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45827</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10716,7 +10731,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10753,14 +10768,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45931</v>
+        <v>45484</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10773,7 +10788,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10810,14 +10825,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45931</v>
+        <v>45831</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10830,7 +10845,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10867,14 +10882,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45709.605</v>
+        <v>45579</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10887,7 +10902,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10924,14 +10939,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10944,7 +10959,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10981,14 +10996,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45931</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11001,7 +11016,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11038,14 +11053,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45931</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11058,7 +11073,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11095,14 +11110,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45931</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11115,7 +11130,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11152,14 +11167,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45931</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11172,7 +11187,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11209,14 +11224,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11229,7 +11244,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11266,14 +11281,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45839</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11285,13 +11300,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11328,14 +11338,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11347,8 +11357,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11385,14 +11400,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45287</v>
+        <v>45436</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11405,7 +11420,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>14.2</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11442,14 +11457,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45839</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11461,8 +11476,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11499,14 +11519,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45934</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11519,7 +11539,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11556,14 +11576,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45166</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11575,8 +11595,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>24.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11613,14 +11638,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>44299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11633,7 +11658,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11670,14 +11695,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44768</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11690,7 +11715,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11727,14 +11752,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45939</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11747,7 +11772,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11784,14 +11809,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45207</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11804,7 +11829,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11841,14 +11866,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45842</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11898,14 +11923,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45842</v>
+        <v>45547</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11955,14 +11980,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45247</v>
+        <v>45640</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11975,7 +12000,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12012,14 +12037,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45579</v>
+        <v>45842</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12032,7 +12057,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12069,14 +12094,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45309</v>
+        <v>45709</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12089,7 +12114,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12126,14 +12151,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45709</v>
+        <v>45704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12146,7 +12171,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12183,14 +12208,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45709</v>
+        <v>45616</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12203,7 +12228,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12240,14 +12265,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45531</v>
+        <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12260,7 +12285,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12297,14 +12322,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45230</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12317,7 +12342,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12354,14 +12379,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45842</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12374,7 +12399,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12411,14 +12436,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45112</v>
+        <v>45621</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12431,7 +12456,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12468,14 +12493,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45245</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12488,7 +12513,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12525,14 +12550,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45945</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12545,7 +12570,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12582,14 +12607,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44936</v>
+        <v>45616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12602,7 +12627,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12639,14 +12664,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45078</v>
+        <v>45310</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12659,7 +12684,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12696,14 +12721,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44395</v>
+        <v>45629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12716,7 +12741,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12753,14 +12778,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45877</v>
+        <v>45041</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12772,8 +12797,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12810,14 +12840,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12830,7 +12860,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>9.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12867,14 +12897,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45531</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12887,7 +12917,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12924,14 +12954,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44942</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12944,7 +12974,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12981,14 +13011,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>45253</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13001,7 +13031,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13038,14 +13068,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>45519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13058,7 +13088,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13095,14 +13125,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45953</v>
+        <v>45713</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13115,7 +13145,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13152,14 +13182,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45953</v>
+        <v>45713</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13172,7 +13202,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13209,14 +13239,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 9570-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45694</v>
+        <v>44251</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,8 +13258,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13266,14 +13301,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45642</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13323,14 +13358,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45371</v>
+        <v>45287</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,13 +13377,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>6.9</v>
+        <v>14.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13385,14 +13415,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45956.7075</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13405,7 +13435,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13442,14 +13472,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45753</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13462,7 +13492,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13499,14 +13529,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45671</v>
+        <v>45694</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13519,7 +13549,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13556,14 +13586,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>45636</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13576,7 +13606,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13613,14 +13643,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>45720</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13633,7 +13663,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13670,14 +13700,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44680</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13690,7 +13720,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13727,14 +13757,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13747,7 +13777,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13784,14 +13814,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>44746</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13803,8 +13833,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13841,14 +13876,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45877</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13861,7 +13896,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13898,14 +13933,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>45247</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13918,7 +13953,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13955,14 +13990,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>45525</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13975,7 +14010,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14012,14 +14047,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>45378</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14032,7 +14067,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14069,14 +14104,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45378</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14089,7 +14124,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14126,14 +14161,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>45761</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14146,7 +14181,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14183,14 +14218,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45709</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14203,7 +14238,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14240,14 +14275,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 9570-2021</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44251</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,13 +14294,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14302,14 +14332,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44847</v>
+        <v>44550</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14322,7 +14352,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14359,14 +14389,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14378,13 +14408,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14421,14 +14446,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45243</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14441,7 +14466,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14478,14 +14503,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44266</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14497,13 +14522,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14540,14 +14560,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14559,13 +14579,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14602,14 +14617,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45640</v>
+        <v>45378</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14622,7 +14637,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14659,14 +14674,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45743</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14679,7 +14694,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14716,14 +14731,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45985</v>
+        <v>44680</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14736,7 +14751,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14773,14 +14788,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44489</v>
+        <v>44803</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14793,7 +14808,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14830,14 +14845,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45978</v>
+        <v>45309</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14849,13 +14864,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14892,14 +14902,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44991</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14912,7 +14922,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>7.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14949,14 +14959,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45245</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14969,7 +14979,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15006,14 +15016,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15026,7 +15036,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15063,14 +15073,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15083,7 +15093,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15120,14 +15130,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45642</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15140,7 +15150,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15177,14 +15187,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15197,7 +15207,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15234,14 +15244,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>45741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15254,7 +15264,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15291,14 +15301,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45109</v>
+        <v>44395</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15311,7 +15321,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15348,14 +15358,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45525</v>
+        <v>44489</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15368,7 +15378,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15405,14 +15415,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44942</v>
+        <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15462,14 +15472,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45910</v>
+        <v>45699</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15482,7 +15492,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15519,14 +15529,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45910</v>
+        <v>45709</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15539,7 +15549,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15576,14 +15586,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45519</v>
+        <v>45709.605</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15596,7 +15606,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15633,14 +15643,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45671</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15653,7 +15663,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15690,14 +15700,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45720</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15709,8 +15719,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15747,14 +15762,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44550</v>
+        <v>44386</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15766,8 +15781,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15804,14 +15824,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>45616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15824,7 +15844,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15861,14 +15881,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45399</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15881,7 +15901,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15918,14 +15938,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45747</v>
+        <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15938,7 +15958,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15975,14 +15995,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44623</v>
+        <v>45684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15994,8 +16014,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16032,14 +16057,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45378</v>
+        <v>44489</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16052,7 +16077,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16089,14 +16114,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44959</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16109,7 +16134,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16146,14 +16171,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>44775</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16166,7 +16191,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16203,14 +16228,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45694</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16223,7 +16248,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16260,14 +16285,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45629</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16280,7 +16305,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>7.4</v>
+        <v>0.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16317,14 +16342,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45378</v>
+        <v>45109</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16337,7 +16362,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16374,14 +16399,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45548</v>
+        <v>45730</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16393,13 +16418,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16436,14 +16456,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>45616</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16456,7 +16476,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16493,14 +16513,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44896</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16510,11 +16530,6 @@
       <c r="E274" t="inlineStr">
         <is>
           <t>KIL</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -16555,14 +16570,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>45520</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16575,7 +16590,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16612,14 +16627,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45030</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16632,7 +16647,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16669,14 +16684,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45616</v>
+        <v>45897</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16689,7 +16704,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16726,14 +16741,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45287</v>
+        <v>45897</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16746,7 +16761,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16783,14 +16798,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45287</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16803,7 +16818,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16840,14 +16855,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45747</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16860,7 +16875,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16897,14 +16912,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16917,7 +16932,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.9</v>
+        <v>11.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16954,14 +16969,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45568</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16974,7 +16989,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17011,14 +17026,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45742</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17031,7 +17046,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17068,14 +17083,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17088,7 +17103,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17125,14 +17140,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17145,7 +17160,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17182,14 +17197,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45460</v>
+        <v>45252</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17202,7 +17217,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17239,14 +17254,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45166</v>
+        <v>44768</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17258,13 +17273,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>24.9</v>
+        <v>5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17301,14 +17311,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45694</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17321,7 +17331,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17358,14 +17368,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45463</v>
+        <v>45742</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17377,13 +17387,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17420,14 +17425,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44941</v>
+        <v>45734</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17440,7 +17445,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17477,14 +17482,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45616</v>
+        <v>45694</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17497,7 +17502,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17534,14 +17539,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17554,7 +17559,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17591,14 +17596,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>45749</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17611,7 +17616,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17648,14 +17653,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45734</v>
+        <v>45541</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17668,7 +17673,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17705,14 +17710,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17725,7 +17730,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17762,14 +17767,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45684</v>
+        <v>45923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17781,13 +17786,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17824,14 +17824,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45574</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17881,14 +17881,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45784</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17938,14 +17938,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45436</v>
+        <v>45931</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17995,14 +17995,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45931</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18052,14 +18052,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>45931</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18109,14 +18109,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45413</v>
+        <v>45931</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18166,14 +18166,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45761</v>
+        <v>45931</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18223,14 +18223,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44587</v>
+        <v>45931</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18280,14 +18280,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>45931</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18337,14 +18337,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45621</v>
+        <v>45931</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18394,14 +18394,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45931</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18451,14 +18451,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45541</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18508,14 +18508,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45541</v>
+        <v>45931</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18565,14 +18565,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45229</v>
+        <v>45931</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18622,14 +18622,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45484</v>
+        <v>45287</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.4</v>
+        <v>6.9</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18679,14 +18679,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44722</v>
+        <v>45934</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18736,14 +18736,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44427</v>
+        <v>45629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18793,14 +18793,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44930</v>
+        <v>45939</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18850,14 +18850,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45636</v>
+        <v>45945</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18907,14 +18907,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45953</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18964,14 +18964,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45617</v>
+        <v>45953</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19021,14 +19021,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45713</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19078,14 +19078,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45713</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19135,14 +19135,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45520</v>
+        <v>45956.7075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19192,14 +19192,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19249,14 +19249,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45253</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19306,14 +19306,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>45798</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19363,14 +19363,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19420,14 +19420,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45041</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19439,13 +19439,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19482,14 +19477,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19502,7 +19497,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19539,14 +19534,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19559,7 +19554,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19596,14 +19591,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45030</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19616,7 +19611,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19653,14 +19648,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45694</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19673,7 +19668,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19710,14 +19705,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45734</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19729,8 +19724,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G330" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19767,14 +19767,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45463</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19788,11 +19788,11 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19829,14 +19829,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45448</v>
+        <v>45985</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,13 +19848,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G332" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19891,14 +19886,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45558</v>
+        <v>45978</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19910,8 +19905,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G333" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19948,14 +19948,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20005,14 +20005,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45704</v>
+        <v>45910</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20062,14 +20062,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45734</v>
+        <v>45910</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20119,14 +20119,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45392</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20176,14 +20176,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44655</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20233,14 +20233,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20290,14 +20290,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44487</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,14 +920,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56642-2022</t>
+          <t>A 42668-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44893</v>
+        <v>45907</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,11 +941,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -979,209 +979,209 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 26849-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45093</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,14 +1454,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 64553-2021</t>
+          <t>A 21233-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44511.6452199074</v>
+        <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1511,14 +1511,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 21233-2021</t>
+          <t>A 64553-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44314</v>
+        <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1739,14 +1739,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15437-2021</t>
+          <t>A 61638-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44285.37357638889</v>
+        <v>44501</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1796,14 +1796,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61638-2021</t>
+          <t>A 15437-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44501</v>
+        <v>44285.37357638889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2651,14 +2651,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1330-2022</t>
+          <t>A 2993-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44572</v>
+        <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2708,14 +2708,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2993-2022</t>
+          <t>A 2997-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2765,14 +2765,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2997-2022</t>
+          <t>A 2998-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2822,14 +2822,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2998-2022</t>
+          <t>A 1330-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44266</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44287</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3620,14 +3620,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,14 +4656,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37962-2022</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44811</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4713,14 +4713,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 71728-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>44543.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4770,14 +4770,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 71728-2021</t>
+          <t>A 37962-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44543.45789351852</v>
+        <v>44811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44348</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44927</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5226,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45397</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5283,14 +5283,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44847</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5340,14 +5340,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45397</v>
+        <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>45741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5454,14 +5454,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5511,14 +5511,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>44386</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5530,8 +5530,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5568,14 +5573,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5588,7 +5593,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5625,14 +5630,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45243</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5645,7 +5650,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5682,14 +5687,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5702,7 +5707,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5739,14 +5744,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45743</v>
+        <v>45243</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5796,14 +5801,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5816,7 +5821,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5853,14 +5858,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44386</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5872,13 +5877,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>45797.42086805555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5972,14 +5972,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6029,14 +6029,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>45743</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>17.9</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6086,14 +6086,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>45727.35804398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45798</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6257,14 +6257,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45749</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>17.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6314,14 +6314,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45729</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6371,14 +6371,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45705</v>
+        <v>45897</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6428,14 +6428,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45897</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6485,14 +6485,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44386</v>
+        <v>45749</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6504,13 +6504,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6547,14 +6542,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45294</v>
+        <v>45807</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6566,13 +6561,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6609,14 +6599,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45807</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6629,7 +6619,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6666,14 +6656,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44754</v>
+        <v>45538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,13 +6675,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6728,14 +6713,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>45194</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6748,7 +6733,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6785,14 +6770,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45538</v>
+        <v>45729</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6805,7 +6790,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6842,14 +6827,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45194</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6862,7 +6847,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6899,14 +6884,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6919,7 +6904,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6956,14 +6941,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6976,7 +6961,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7013,14 +6998,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45789</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7033,7 +7018,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7070,14 +7055,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7090,7 +7075,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7127,14 +7112,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>45705</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7147,7 +7132,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7184,14 +7169,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>44386</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7203,8 +7188,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7241,14 +7231,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45294</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7260,8 +7250,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7298,14 +7293,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45531</v>
+        <v>44754</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,8 +7312,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7355,14 +7355,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7412,14 +7412,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45163</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7469,14 +7469,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45616</v>
+        <v>45531</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7526,14 +7526,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45747</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7583,14 +7583,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7640,14 +7640,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7697,14 +7697,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45827</v>
+        <v>45163</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7754,14 +7754,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45568</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7811,14 +7811,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45753</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7868,14 +7868,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45831</v>
+        <v>45827</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7925,14 +7925,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45616</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7982,14 +7982,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45037.57375</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8039,14 +8039,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45831</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8096,666 +8096,666 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
+          <t>A 17329-2025</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45756.64131944445</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>A 31559-2025</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>45833.65369212963</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>A 43285-2024</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>A 16609-2025</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 45776-2025</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45923</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A 45786-2025</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45923.56116898148</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>A 6687-2023</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>44966.65414351852</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135" ht="15" customHeight="1">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>A 64193-2021</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>44510.59939814815</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" s="2" t="inlineStr"/>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>A 32982-2025</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>A 32410-2025</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>45838.33539351852</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" s="2" t="inlineStr"/>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>A 59064-2023</t>
         </is>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B138" s="1" t="n">
         <v>45252</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
+      <c r="C138" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
         <v>1.1</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="U128">
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" s="2" t="inlineStr"/>
+      <c r="U138">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="V128">
+      <c r="V138">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="W128">
+      <c r="W138">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="X128">
+      <c r="X138">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="Y128">
+      <c r="Y138">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>A 38835-2024</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>45547</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" s="2" t="inlineStr"/>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>A 3851-2025</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>45683.88302083333</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" s="2" t="inlineStr"/>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>A 12928-2025</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>45734</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" s="2" t="inlineStr"/>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>A 40731-2025</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>45897</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>0</v>
-      </c>
-      <c r="R132" s="2" t="inlineStr"/>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>A 54177-2023</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>45232</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" s="2" t="inlineStr"/>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>A 40742-2025</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>45897</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
-      <c r="R134" s="2" t="inlineStr"/>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>A 32982-2025</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>45839</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
-      <c r="R135" s="2" t="inlineStr"/>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>A 32410-2025</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>45838.33539351852</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>0</v>
-      </c>
-      <c r="R136" s="2" t="inlineStr"/>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>A 20357-2021</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>44315</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" s="2" t="inlineStr"/>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>A 46220-2021</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>44442.50498842593</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" s="2" t="inlineStr"/>
-    </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8767,13 +8767,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8810,14 +8805,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8830,7 +8825,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8867,14 +8862,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8887,7 +8882,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8924,14 +8919,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45720</v>
+        <v>45232</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8943,13 +8938,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8986,14 +8976,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45310</v>
+        <v>45931</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9006,7 +8996,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9043,14 +9033,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45931</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9063,7 +9053,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9100,14 +9090,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45842</v>
+        <v>45931</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9110,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9157,14 +9147,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45842</v>
+        <v>45931</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9167,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9214,14 +9204,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45730</v>
+        <v>44315</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9224,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9271,14 +9261,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45709.605</v>
+        <v>45931</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9281,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9328,14 +9318,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9338,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9385,14 +9375,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45931</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9395,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9442,14 +9432,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45531</v>
+        <v>45931</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9462,7 +9452,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9499,14 +9489,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45287</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9519,7 +9509,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14.2</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9556,14 +9546,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45931</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9576,7 +9566,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9613,14 +9603,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9633,7 +9623,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9670,14 +9660,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45747</v>
+        <v>45931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9690,7 +9680,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9727,14 +9717,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45931</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9747,7 +9737,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9784,14 +9774,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45629</v>
+        <v>45842</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9804,7 +9794,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9841,14 +9831,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>45842</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9861,7 +9851,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9898,14 +9888,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44768</v>
+        <v>45548</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9917,8 +9907,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9955,14 +9950,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45247</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9975,7 +9970,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10012,14 +10007,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45579</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10032,7 +10027,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10069,14 +10064,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45309</v>
+        <v>45720</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10088,8 +10083,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10126,14 +10126,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45709</v>
+        <v>45310</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10183,14 +10183,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45709</v>
+        <v>45531</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10240,14 +10240,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45877</v>
+        <v>45934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10297,14 +10297,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45230</v>
+        <v>45730</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10354,14 +10354,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45709.605</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10411,14 +10411,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45112</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.1</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10468,14 +10468,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45245</v>
+        <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10525,14 +10525,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44936</v>
+        <v>44657.619375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10582,14 +10582,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45078</v>
+        <v>45287</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>14.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10639,14 +10639,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44489</v>
+        <v>45945</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10696,14 +10696,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44395</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10753,14 +10753,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45923</v>
+        <v>45877</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10810,14 +10810,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10867,14 +10867,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>45953</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10924,14 +10924,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45953</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10981,14 +10981,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44942</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11038,14 +11038,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45931</v>
+        <v>45956.7075</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11095,14 +11095,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45931</v>
+        <v>44768</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11152,14 +11152,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45931</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11209,14 +11209,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45931</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11266,14 +11266,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>45247</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11323,14 +11323,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>45579</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11380,14 +11380,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45931</v>
+        <v>45309</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11437,14 +11437,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45931</v>
+        <v>45709</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11494,14 +11494,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45931</v>
+        <v>45709</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11551,14 +11551,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45694</v>
+        <v>44489</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11608,14 +11608,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11665,14 +11665,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45931</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11722,14 +11722,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45931</v>
+        <v>45230</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11779,14 +11779,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45931</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11836,14 +11836,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45931</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11893,14 +11893,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45371</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11912,13 +11912,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11955,14 +11950,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45671</v>
+        <v>45112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11975,7 +11970,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>10.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12012,14 +12007,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45934</v>
+        <v>45245</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12032,7 +12027,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12069,14 +12064,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12089,7 +12084,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12126,14 +12121,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44680</v>
+        <v>44936</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12146,7 +12141,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12183,14 +12178,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45939</v>
+        <v>45078</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12203,7 +12198,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12240,14 +12235,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>44395</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12260,7 +12255,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12297,14 +12292,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12316,8 +12311,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12354,14 +12354,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12373,8 +12373,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12411,14 +12416,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45945</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12431,7 +12436,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12468,14 +12473,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45378</v>
+        <v>45985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12488,7 +12493,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12525,14 +12530,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45709</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12545,7 +12550,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12582,14 +12587,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9570-2021</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44251</v>
+        <v>44942</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12601,13 +12606,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12644,14 +12644,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44847</v>
+        <v>45978</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12663,8 +12663,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12701,14 +12706,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45953</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12721,7 +12726,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12758,14 +12763,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45953</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12778,7 +12783,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12815,14 +12820,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45694</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12835,7 +12840,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12872,14 +12877,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44266</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12891,13 +12896,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12934,14 +12934,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45640</v>
+        <v>45371</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12953,8 +12953,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12991,14 +12996,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45671</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13011,7 +13016,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13048,14 +13053,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13068,7 +13073,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13105,14 +13110,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13125,7 +13130,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13162,14 +13167,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>44680</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13182,7 +13187,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13219,14 +13224,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44489</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13239,7 +13244,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13276,14 +13281,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44991</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13296,7 +13301,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13333,14 +13338,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13353,7 +13358,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13390,14 +13395,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>45910</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13410,7 +13415,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13447,14 +13452,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>45910</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13467,7 +13472,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13504,14 +13509,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45642</v>
+        <v>45378</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13524,7 +13529,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13561,14 +13566,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13581,7 +13586,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13618,14 +13623,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45709</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13638,7 +13643,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13675,14 +13680,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 9570-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>44251</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13694,8 +13699,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13732,14 +13742,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>44847</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13752,7 +13762,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13789,14 +13799,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45109</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13809,7 +13819,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13846,14 +13856,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45525</v>
+        <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13865,8 +13875,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13903,14 +13918,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44942</v>
+        <v>45640</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13923,7 +13938,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13960,14 +13975,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13980,7 +13995,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14017,14 +14032,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45519</v>
+        <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14037,7 +14052,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14074,14 +14089,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>44991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14094,7 +14109,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14131,14 +14146,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44550</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14151,7 +14166,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14188,14 +14203,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14208,7 +14223,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14245,14 +14260,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45399</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14265,7 +14280,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14302,14 +14317,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45747</v>
+        <v>45642</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14322,7 +14337,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14359,14 +14374,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44623</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14379,7 +14394,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14416,14 +14431,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45378</v>
+        <v>45109</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14436,7 +14451,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14473,14 +14488,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44959</v>
+        <v>45525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14493,7 +14508,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14530,14 +14545,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45694</v>
+        <v>44942</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14550,7 +14565,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14587,14 +14602,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45629</v>
+        <v>45519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14607,7 +14622,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14644,14 +14659,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45378</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14664,7 +14679,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14701,14 +14716,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45548</v>
+        <v>44550</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14720,13 +14735,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14763,14 +14773,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14782,13 +14792,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14825,14 +14830,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>45399</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14845,7 +14850,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14882,14 +14887,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44896</v>
+        <v>45747</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14901,13 +14906,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14944,14 +14944,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>44623</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14963,13 +14963,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15006,14 +15001,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>45378</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15026,7 +15021,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15063,14 +15058,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>44959</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15083,7 +15078,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15120,14 +15115,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45985</v>
+        <v>45694</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15140,7 +15135,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15177,14 +15172,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45616</v>
+        <v>45629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15197,7 +15192,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15234,14 +15229,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45287</v>
+        <v>45378</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15254,7 +15249,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15291,14 +15286,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45287</v>
+        <v>45548</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15310,8 +15305,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15348,14 +15348,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45978</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15367,13 +15367,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15410,14 +15405,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>44896</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15429,8 +15424,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15467,14 +15467,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15524,14 +15524,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45742</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15581,14 +15581,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45616</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15638,14 +15638,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45287</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15695,14 +15695,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45287</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15752,14 +15752,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45460</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15809,14 +15809,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45166</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15828,13 +15828,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>24.9</v>
+        <v>9.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15871,14 +15866,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45742</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15891,7 +15886,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15928,14 +15923,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45463</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15947,13 +15942,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15990,14 +15980,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44941</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16047,14 +16037,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45616</v>
+        <v>45460</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16067,7 +16057,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16104,14 +16094,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45166</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16123,8 +16113,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>24.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16161,14 +16156,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16181,7 +16176,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16218,14 +16213,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45734</v>
+        <v>45463</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16237,8 +16232,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16275,14 +16275,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>44941</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16332,14 +16332,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45910</v>
+        <v>45616</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16389,14 +16389,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45910</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16446,14 +16446,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45684</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16465,13 +16465,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16508,14 +16503,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45574</v>
+        <v>45734</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16528,7 +16523,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16565,14 +16560,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16585,7 +16580,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16622,14 +16617,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45436</v>
+        <v>45684</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16641,8 +16636,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16679,14 +16679,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>45436</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45413</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45761</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16964,14 +16964,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44587</v>
+        <v>45413</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17021,14 +17021,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>45761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17078,14 +17078,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>44587</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17135,14 +17135,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45621</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17192,14 +17192,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45621</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>45541</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45541</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45229</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45484</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44722</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44427</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44930</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45636</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45091.60797453704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45617</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45713</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45520</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44907.48916666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45253</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45367.43570601852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44792.52918981481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45041</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44544.50324074074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45460.44770833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45030</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45694</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45734</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45463</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45558</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45671.57612268518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45734</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>44655</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45367.44355324074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>44487</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>44299</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45310.46356481482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45720</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>45397.45333333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45699</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>44803</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44964.41993055555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45713</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45436</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>45642.32818287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>45616</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44775</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44565</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45636</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44746</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45398.85325231482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45287</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45784</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,14 +835,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 8909-2025</t>
+          <t>A 42668-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45713</v>
+        <v>45907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -854,17 +854,22 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>22.6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -879,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -889,124 +894,119 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 8909-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Desmeknopp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44893</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,14 +1454,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21233-2021</t>
+          <t>A 64553-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44314</v>
+        <v>44511.6452199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1511,14 +1511,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64553-2021</t>
+          <t>A 21233-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44511.6452199074</v>
+        <v>44314</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1568,14 +1568,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 16874-2022</t>
+          <t>A 34607-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44675.64548611111</v>
+        <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>16.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34607-2021</t>
+          <t>A 16874-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44382</v>
+        <v>44675.64548611111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>16.6</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1739,14 +1739,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 61638-2021</t>
+          <t>A 15437-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44501</v>
+        <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1796,14 +1796,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15437-2021</t>
+          <t>A 61638-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44285.37357638889</v>
+        <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55070-2021</t>
+          <t>A 46295-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44474</v>
+        <v>44847</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46295-2022</t>
+          <t>A 55070-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44847</v>
+        <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3221,14 +3221,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12424-2021</t>
+          <t>A 16168-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44266</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3278,14 +3278,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16168-2021</t>
+          <t>A 12424-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44287</v>
+        <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,14 +4656,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 37962-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4713,14 +4713,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 71728-2021</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44543.45789351852</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4770,14 +4770,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37962-2022</t>
+          <t>A 71728-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44811</v>
+        <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4884,14 +4884,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44348</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4941,14 +4941,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5169,14 +5169,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44927</v>
+        <v>45629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5226,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45397</v>
+        <v>44386</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5245,8 +5245,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5283,14 +5288,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>44927</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5303,7 +5308,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5340,14 +5345,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44847</v>
+        <v>45397</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5360,7 +5365,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5397,14 +5402,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45741</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5417,7 +5422,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5454,14 +5459,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>44847</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5474,7 +5479,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5511,14 +5516,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44386</v>
+        <v>45741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5530,13 +5535,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5573,14 +5573,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5630,14 +5630,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5687,14 +5687,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5744,14 +5744,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45243</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5801,14 +5801,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5858,14 +5858,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5915,14 +5915,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5972,14 +5972,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45243</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6029,14 +6029,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45743</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6086,14 +6086,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>45798</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6143,14 +6143,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45897</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6200,14 +6200,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45798</v>
+        <v>45897</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6257,14 +6257,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>45743</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>17.9</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6314,14 +6314,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6333,8 +6333,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6371,14 +6376,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45897</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6391,7 +6396,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6428,14 +6433,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45897</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6448,7 +6453,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>17.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6485,14 +6490,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45749</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6505,7 +6510,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6549,7 +6554,7 @@
         <v>45807</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6606,7 +6611,7 @@
         <v>45531.45243055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6663,7 +6668,7 @@
         <v>45538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6720,7 +6725,7 @@
         <v>45194</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6770,14 +6775,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45729</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6790,7 +6795,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6827,14 +6832,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45749</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6847,7 +6852,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6891,7 +6896,7 @@
         <v>45811.48915509259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6948,7 +6953,7 @@
         <v>45789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7005,7 +7010,7 @@
         <v>45811.47222222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7055,14 +7060,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45747</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7075,7 +7080,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7112,14 +7117,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45705</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7132,7 +7137,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>11.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7169,14 +7174,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44386</v>
+        <v>45729</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7188,13 +7193,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7231,14 +7231,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45294</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7250,13 +7250,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7293,14 +7288,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44754</v>
+        <v>45629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7312,13 +7307,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7355,14 +7345,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7375,7 +7365,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7412,14 +7402,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>44386</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7431,8 +7421,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7469,14 +7464,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45531</v>
+        <v>45294</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7488,8 +7483,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7526,14 +7526,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45747</v>
+        <v>44754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,8 +7545,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7583,14 +7588,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7602,8 +7607,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7640,14 +7650,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45629</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7660,7 +7670,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>7.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7697,14 +7707,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45163</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7717,7 +7727,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7754,14 +7764,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45531</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7774,7 +7784,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7811,14 +7821,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45923</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7831,7 +7841,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7868,14 +7878,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45827</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7888,7 +7898,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7925,14 +7935,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45616</v>
+        <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7945,7 +7955,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7982,14 +7992,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8002,7 +8012,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8039,14 +8049,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45831</v>
+        <v>45827</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8059,7 +8069,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8096,14 +8106,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45616</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8116,7 +8126,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8153,14 +8163,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45037.57375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8173,7 +8183,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8210,14 +8220,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45568</v>
+        <v>45985</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8230,7 +8240,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8267,14 +8277,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45753</v>
+        <v>45831</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8287,7 +8297,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8324,14 +8334,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45923</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8344,7 +8354,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8381,14 +8391,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8401,7 +8411,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8438,14 +8448,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45568</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8458,7 +8468,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8495,14 +8505,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45931</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8515,7 +8525,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8552,14 +8562,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8571,13 +8581,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8614,14 +8619,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45931</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8634,7 +8639,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8671,718 +8676,718 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
+          <t>A 47789-2025</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>A 16609-2025</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>A 47788-2025</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" s="2" t="inlineStr"/>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>A 47704-2025</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" s="2" t="inlineStr"/>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>A 47722-2025</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>A 47791-2025</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>A 47798-2025</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>A 47804-2025</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>A 47784-2025</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>A 6687-2023</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>44966.65414351852</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A 64193-2021</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>44510.59939814815</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>A 59064-2023</t>
         </is>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B149" s="1" t="n">
         <v>45252</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
+      <c r="C149" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
         <v>1.1</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" s="2" t="inlineStr"/>
-      <c r="U138">
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" s="2" t="inlineStr"/>
+      <c r="U149">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="V138">
+      <c r="V149">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="W138">
+      <c r="W149">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="X138">
+      <c r="X149">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
         <v/>
       </c>
-      <c r="Y138">
+      <c r="Y149">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>A 38835-2024</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>45547</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>0</v>
-      </c>
-      <c r="R139" s="2" t="inlineStr"/>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>A 3851-2025</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>45683.88302083333</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>0</v>
-      </c>
-      <c r="R140" s="2" t="inlineStr"/>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>A 12928-2025</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>45734</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>0</v>
-      </c>
-      <c r="R141" s="2" t="inlineStr"/>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>A 54177-2023</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>45232</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R142" s="2" t="inlineStr"/>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>A 47786-2025</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A 47797-2025</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr"/>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>A 47801-2025</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C145" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>0</v>
-      </c>
-      <c r="R145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>A 47789-2025</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>A 20357-2021</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>44315</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" s="2" t="inlineStr"/>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>A 47788-2025</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C148" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
-      <c r="R148" s="2" t="inlineStr"/>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>A 46220-2021</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>44442.50498842593</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" s="2" t="inlineStr"/>
-    </row>
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9394,8 +9399,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9432,14 +9442,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45931</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9452,7 +9462,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9489,14 +9499,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45547</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9509,7 +9519,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9546,14 +9556,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45931</v>
+        <v>45934</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9566,7 +9576,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9603,14 +9613,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9623,7 +9633,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9660,14 +9670,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45931</v>
+        <v>45734</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9680,7 +9690,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9717,14 +9727,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45931</v>
+        <v>45232</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9737,7 +9747,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9774,14 +9784,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45842</v>
+        <v>45939</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9794,7 +9804,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9831,14 +9841,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45842</v>
+        <v>44315</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9851,7 +9861,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9888,14 +9898,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45548</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9907,13 +9917,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9950,14 +9955,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45548</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9969,8 +9974,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10007,14 +10017,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10027,7 +10037,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10064,14 +10074,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45720</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10083,13 +10093,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10126,14 +10131,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45310</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10146,7 +10151,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10183,14 +10188,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45531</v>
+        <v>45720</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10202,8 +10207,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10240,14 +10250,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45934</v>
+        <v>45945</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10260,7 +10270,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10297,14 +10307,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45730</v>
+        <v>45842</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10317,7 +10327,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10354,14 +10364,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45709.605</v>
+        <v>45842</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10374,7 +10384,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10411,14 +10421,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45310</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10431,7 +10441,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10468,14 +10478,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45939</v>
+        <v>45978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10487,8 +10497,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10525,14 +10540,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45730</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10545,7 +10560,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10582,14 +10597,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45287</v>
+        <v>45531</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10602,7 +10617,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.2</v>
+        <v>6.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10639,14 +10654,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45945</v>
+        <v>45709.605</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10659,7 +10674,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10696,14 +10711,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10753,14 +10768,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45877</v>
+        <v>44657.619375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10773,7 +10788,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.9</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10810,14 +10825,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45953</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10830,7 +10845,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10867,14 +10882,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>45953</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10887,7 +10902,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10924,14 +10939,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45953</v>
+        <v>45287</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10944,7 +10959,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>14.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10981,14 +10996,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>45956.7075</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11001,7 +11016,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11038,14 +11053,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11058,7 +11073,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11095,14 +11110,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44768</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11115,7 +11130,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11152,14 +11167,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11172,7 +11187,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11209,14 +11224,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11229,7 +11244,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11266,14 +11281,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45247</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11286,7 +11301,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11323,14 +11338,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45579</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11343,7 +11358,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11380,14 +11395,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45309</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11400,7 +11415,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11437,14 +11452,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45709</v>
+        <v>44768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11457,7 +11472,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11494,14 +11509,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45709</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11514,7 +11529,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11551,14 +11566,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44489</v>
+        <v>45247</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11571,7 +11586,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11608,14 +11623,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45579</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11628,7 +11643,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11665,14 +11680,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45877</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11685,7 +11700,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>7.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11722,14 +11737,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45230</v>
+        <v>45309</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11742,7 +11757,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11779,14 +11794,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45709</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11799,7 +11814,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11836,14 +11851,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45709</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11856,7 +11871,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11893,14 +11908,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11913,7 +11928,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11950,14 +11965,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45112</v>
+        <v>45230</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11970,7 +11985,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12007,14 +12022,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45245</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12027,7 +12042,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12064,14 +12079,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12084,7 +12099,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12121,14 +12136,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44936</v>
+        <v>45112</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12141,7 +12156,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12178,14 +12193,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45078</v>
+        <v>45245</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12235,14 +12250,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44395</v>
+        <v>44936</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12255,7 +12270,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12292,14 +12307,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45078</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12311,13 +12326,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12354,14 +12364,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>44395</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12373,13 +12383,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12416,14 +12421,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>44489</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12436,7 +12441,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12473,14 +12478,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45985</v>
+        <v>45910</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12493,7 +12498,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12530,14 +12535,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45910</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12550,7 +12555,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12587,14 +12592,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44942</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12607,7 +12612,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12644,14 +12649,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45978</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12661,11 +12666,6 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>KIL</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -12706,14 +12706,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12763,14 +12763,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>44942</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12820,14 +12820,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45694</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12877,14 +12877,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12934,14 +12934,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45371</v>
+        <v>45694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12953,13 +12953,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12996,14 +12991,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45671</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13016,7 +13011,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13053,14 +13048,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13072,8 +13067,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13110,14 +13110,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13167,14 +13167,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44680</v>
+        <v>45671</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13224,14 +13224,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13281,14 +13281,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>44680</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13338,14 +13338,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13395,14 +13395,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45910</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13452,14 +13452,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45910</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13509,14 +13509,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45378</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13566,14 +13566,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45378</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13630,7 +13630,7 @@
         <v>45709</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44251</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44847</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44995.49393518519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45640</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44578.78197916667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44489</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44991</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45384.35752314814</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45742.64630787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>45098.45302083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45642</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45435.69123842593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14431,14 +14431,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45109</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14488,14 +14488,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45525</v>
+        <v>45109</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14545,14 +14545,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44942</v>
+        <v>45525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14602,14 +14602,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45519</v>
+        <v>44942</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14659,14 +14659,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14716,14 +14716,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44550</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14773,14 +14773,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>44550</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14830,14 +14830,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45399</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14887,14 +14887,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45747</v>
+        <v>45399</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14944,14 +14944,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44623</v>
+        <v>45747</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15001,14 +15001,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45378</v>
+        <v>44623</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15058,14 +15058,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44959</v>
+        <v>45378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15115,14 +15115,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45694</v>
+        <v>44959</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15172,14 +15172,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45629</v>
+        <v>45694</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15229,14 +15229,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45378</v>
+        <v>45629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>7.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15286,14 +15286,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45548</v>
+        <v>45378</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15305,13 +15305,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15348,14 +15343,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>45548</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15367,8 +15362,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15405,14 +15405,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44896</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15424,13 +15424,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15467,14 +15462,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>44896</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15486,8 +15481,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15524,14 +15524,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15581,14 +15581,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45616</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15638,14 +15638,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45287</v>
+        <v>45616</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15695,14 +15695,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
         <v>45287</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15752,14 +15752,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45287</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15809,14 +15809,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15866,14 +15866,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45742</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15923,14 +15923,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45742</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15980,14 +15980,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16037,14 +16037,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45460</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16094,14 +16094,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45166</v>
+        <v>45460</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16113,13 +16113,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>24.9</v>
+        <v>1.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16156,14 +16151,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45166</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16175,8 +16170,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>2.1</v>
+        <v>24.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16213,14 +16213,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45463</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16232,13 +16232,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16275,14 +16270,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44941</v>
+        <v>45463</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16294,8 +16289,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16332,14 +16332,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45616</v>
+        <v>44941</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16389,14 +16389,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16446,14 +16446,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16503,14 +16503,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45734</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16560,14 +16560,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45734</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16617,14 +16617,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45684</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16636,13 +16636,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16679,14 +16674,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45574</v>
+        <v>45684</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16698,8 +16693,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45436</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45436</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16964,14 +16964,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45413</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17021,14 +17021,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45761</v>
+        <v>45413</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17078,14 +17078,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44587</v>
+        <v>45761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17135,14 +17135,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>44587</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17192,14 +17192,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45621</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17249,14 +17249,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45541</v>
+        <v>45621</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17306,14 +17306,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
         <v>45541</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17363,14 +17363,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45229</v>
+        <v>45541</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17420,14 +17420,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45484</v>
+        <v>45229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17477,14 +17477,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44722</v>
+        <v>45484</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>7.3</v>
+        <v>0.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17534,14 +17534,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44427</v>
+        <v>44722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.2</v>
+        <v>7.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17591,14 +17591,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44930</v>
+        <v>44427</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17648,14 +17648,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45636</v>
+        <v>44930</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17705,14 +17705,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17762,14 +17762,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45617</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17819,14 +17819,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45713</v>
+        <v>45617</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17876,14 +17876,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
         <v>45713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17933,14 +17933,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45520</v>
+        <v>45713</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17990,14 +17990,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45520</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18047,14 +18047,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45253</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18104,14 +18104,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>45253</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18161,14 +18161,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18218,14 +18218,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45041</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18237,13 +18237,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18280,14 +18275,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>45041</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18299,8 +18294,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>9.6</v>
+        <v>2.5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18337,14 +18337,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>4.5</v>
+        <v>9.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18394,14 +18394,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45030</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18451,14 +18451,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45694</v>
+        <v>45030</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18508,14 +18508,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45734</v>
+        <v>45694</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18565,14 +18565,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45463</v>
+        <v>45734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18584,13 +18584,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18627,14 +18622,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18652,7 +18647,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18689,14 +18684,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45558</v>
+        <v>45448</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,8 +18703,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18746,14 +18746,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45558</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18803,14 +18803,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45704</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18860,14 +18860,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45734</v>
+        <v>45704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18917,14 +18917,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45392</v>
+        <v>45734</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18974,14 +18974,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44655</v>
+        <v>45392</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19031,14 +19031,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>44655</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19088,14 +19088,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44487</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19145,14 +19145,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44299</v>
+        <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19202,14 +19202,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>44299</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19259,14 +19259,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45720</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19316,14 +19316,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45720</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19373,14 +19373,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45699</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19430,14 +19430,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44803</v>
+        <v>45699</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19487,14 +19487,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>44803</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19544,14 +19544,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45713</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19601,14 +19601,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45436</v>
+        <v>45713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19658,14 +19658,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45574</v>
+        <v>45436</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19715,14 +19715,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>45574</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19772,14 +19772,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45616</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19829,14 +19829,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44775</v>
+        <v>45616</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19886,14 +19886,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45207</v>
+        <v>44775</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19943,14 +19943,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44565</v>
+        <v>45207</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20000,14 +20000,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45636</v>
+        <v>44565</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20057,14 +20057,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>44746</v>
+        <v>45636</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20076,13 +20076,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G336" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20119,14 +20114,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>44746</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,8 +20133,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G337" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20176,14 +20176,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45287</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20233,14 +20233,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45784</v>
+        <v>45287</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20290,14 +20290,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45629</v>
+        <v>45784</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38039-2024</t>
+          <t>A 42668-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45544</v>
+        <v>45907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,8 +769,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -804,653 +809,648 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62010-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 9558-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44251</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Ängsmetallvinge</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 8909-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Desmeknopp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 41526-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hökuggla</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 26849-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 8909-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Desmeknopp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 56642-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44893</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26849-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45093</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41526-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hökuggla</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 62010-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44914</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 9558-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44251</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ängsmetallvinge</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44314</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,14 +1568,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34607-2021</t>
+          <t>A 16874-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44382</v>
+        <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>16.6</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1625,14 +1625,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51174-2021</t>
+          <t>A 34607-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44461</v>
+        <v>44382</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>16.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 16874-2022</t>
+          <t>A 51174-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44675.64548611111</v>
+        <v>44461</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46295-2022</t>
+          <t>A 55070-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44847</v>
+        <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55070-2021</t>
+          <t>A 46295-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44474</v>
+        <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4656,14 +4656,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37962-2022</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44811</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4713,14 +4713,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 37962-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>44811</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4998,14 +4998,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45378</v>
+        <v>45617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5055,14 +5055,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>45229</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5112,14 +5112,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45252</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5169,14 +5169,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45629</v>
+        <v>45694</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5226,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44386</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5245,13 +5245,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5288,14 +5283,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44927</v>
+        <v>45931</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5308,7 +5303,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5345,14 +5340,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45397</v>
+        <v>45931</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5365,7 +5360,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5402,14 +5397,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45931</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5422,7 +5417,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5459,14 +5454,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44847</v>
+        <v>45931</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5479,7 +5474,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.300000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5516,14 +5511,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45741</v>
+        <v>45931</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5536,7 +5531,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5573,14 +5568,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45931</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5593,7 +5588,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5630,14 +5625,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45931</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5650,7 +5645,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5687,14 +5682,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45931</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5707,7 +5702,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5744,14 +5739,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45749</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5764,7 +5759,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5801,14 +5796,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5821,7 +5816,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5858,14 +5853,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45729</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5878,7 +5873,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5915,14 +5910,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>45541</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5935,7 +5930,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5972,14 +5967,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45243</v>
+        <v>44315</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5992,7 +5987,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6029,14 +6024,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6049,7 +6044,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6086,14 +6081,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45798</v>
+        <v>45931</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6106,7 +6101,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6143,14 +6138,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45897</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6163,7 +6158,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6200,14 +6195,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45897</v>
+        <v>45931</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6220,7 +6215,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6257,14 +6252,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45743</v>
+        <v>45931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6277,7 +6272,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6314,14 +6309,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6331,11 +6326,6 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>KIL</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -6376,14 +6366,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6396,7 +6386,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6433,14 +6423,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>45934</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6453,7 +6443,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>17.9</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6490,14 +6480,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>45413</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6510,7 +6500,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6547,14 +6537,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45807</v>
+        <v>45252</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6567,7 +6557,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6600,18 +6590,38 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="inlineStr"/>
+      <c r="U101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>44847</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6624,7 +6634,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6661,14 +6671,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45538</v>
+        <v>44386</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6680,8 +6690,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6718,14 +6733,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45194</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6738,7 +6753,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6775,14 +6790,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6795,7 +6810,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6832,14 +6847,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45749</v>
+        <v>45399</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6852,7 +6867,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6889,14 +6904,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45784</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6946,14 +6961,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45789</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6966,7 +6981,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7003,14 +7018,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>44847</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7023,7 +7038,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7060,14 +7075,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45747</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7080,7 +7095,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7117,14 +7132,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7137,7 +7152,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.5</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7174,14 +7189,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45729</v>
+        <v>45287</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7194,7 +7209,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7231,14 +7246,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>44927</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7251,7 +7266,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7288,14 +7303,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45629</v>
+        <v>45287</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7308,7 +7323,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7345,14 +7360,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45705</v>
+        <v>45287</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7365,7 +7380,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7402,14 +7417,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44386</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7421,13 +7436,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7464,14 +7474,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45294</v>
+        <v>45629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7483,13 +7493,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7526,14 +7531,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44754</v>
+        <v>45897</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7545,13 +7550,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>45897</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7607,13 +7607,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7650,14 +7645,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7670,7 +7665,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7707,14 +7702,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45939</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7727,7 +7722,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7764,14 +7759,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45531</v>
+        <v>45945</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7784,7 +7779,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7821,14 +7816,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45923</v>
+        <v>45747</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7841,7 +7836,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7878,14 +7873,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7898,7 +7893,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>11.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7935,14 +7930,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45163</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7955,7 +7950,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7992,14 +7987,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8012,7 +8007,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8049,14 +8044,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45827</v>
+        <v>45629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8069,7 +8064,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8106,14 +8101,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45616</v>
+        <v>45294</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8125,8 +8120,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8163,14 +8163,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45798</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8220,14 +8220,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45985</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8277,14 +8277,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45831</v>
+        <v>45953</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8334,14 +8334,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45953</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8391,14 +8391,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8448,14 +8448,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45568</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8505,14 +8505,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45931</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8562,14 +8562,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45931</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8619,14 +8619,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45931</v>
+        <v>45956.7075</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8676,14 +8676,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45931</v>
+        <v>45531</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8733,14 +8733,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45753</v>
+        <v>44386</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8752,8 +8752,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8790,14 +8795,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45931</v>
+        <v>45734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8810,7 +8815,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8847,14 +8852,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45931</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8867,7 +8872,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8904,14 +8909,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45931</v>
+        <v>45436</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8924,7 +8929,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8961,14 +8966,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45931</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8981,7 +8986,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9018,14 +9023,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45931</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9038,7 +9043,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9075,14 +9080,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45931</v>
+        <v>44487</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9095,7 +9100,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9132,14 +9137,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45931</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9152,7 +9157,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9189,14 +9194,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9209,7 +9214,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9246,14 +9251,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45448</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9265,8 +9270,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9303,14 +9313,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45252</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9323,7 +9333,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9356,38 +9366,18 @@
         <v>0</v>
       </c>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="U149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y149">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45839</v>
+        <v>45789</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9399,13 +9389,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9442,14 +9427,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45807</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9462,7 +9447,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9499,14 +9484,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45547</v>
+        <v>45194</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9519,7 +9504,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9556,14 +9541,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45934</v>
+        <v>45538</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9576,7 +9561,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9613,14 +9598,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9633,7 +9618,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9670,14 +9655,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45734</v>
+        <v>45923</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9690,7 +9675,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9727,14 +9712,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45232</v>
+        <v>44930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9747,7 +9732,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9784,14 +9769,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45939</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9804,7 +9789,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9841,14 +9826,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44315</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9861,7 +9846,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9898,14 +9883,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9918,7 +9903,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9955,14 +9940,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45548</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9974,13 +9959,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10017,14 +9997,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>44587</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10037,7 +10017,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10074,14 +10054,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10094,7 +10074,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10131,14 +10111,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45747</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10151,7 +10131,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10188,14 +10168,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45720</v>
+        <v>45636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10207,13 +10187,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10250,14 +10225,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45945</v>
+        <v>44896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10269,8 +10244,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10307,14 +10287,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45842</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10327,7 +10307,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10364,14 +10344,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45842</v>
+        <v>45827</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10384,7 +10364,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10421,14 +10401,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45310</v>
+        <v>45541</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10441,7 +10421,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10478,14 +10458,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45978</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10497,13 +10477,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10540,14 +10515,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45730</v>
+        <v>45831</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10560,7 +10535,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10597,14 +10572,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45531</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10616,8 +10591,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10654,14 +10634,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45709.605</v>
+        <v>44942</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10674,7 +10654,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10711,14 +10691,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10731,7 +10711,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10768,14 +10748,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45548</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10787,8 +10767,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10825,14 +10810,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45953</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10845,7 +10830,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10882,14 +10867,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45953</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10901,8 +10886,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10939,14 +10929,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45287</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10959,7 +10949,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>14.2</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10996,14 +10986,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11016,7 +11006,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11053,14 +11043,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45378</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11073,7 +11063,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11110,14 +11100,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45705</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11130,7 +11120,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11167,14 +11157,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>45839</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11186,8 +11176,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11224,14 +11219,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11244,7 +11239,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11281,14 +11276,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>45460</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11301,7 +11296,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11338,14 +11333,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45985</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11358,7 +11353,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11395,14 +11390,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11414,8 +11409,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11452,14 +11452,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44768</v>
+        <v>44942</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11509,14 +11509,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45842</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11566,14 +11566,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45247</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11623,14 +11623,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45579</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11680,14 +11680,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45877</v>
+        <v>45842</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11737,14 +11737,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45309</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11794,14 +11794,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45709</v>
+        <v>45531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11851,14 +11851,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45709</v>
+        <v>44657.619375</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11908,14 +11908,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>44959</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11965,14 +11965,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45230</v>
+        <v>45910</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12022,14 +12022,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>45910</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12079,14 +12079,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12136,14 +12136,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45112</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12193,14 +12193,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45245</v>
+        <v>45436</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12250,14 +12250,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44936</v>
+        <v>45166</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12269,8 +12269,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>24.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12307,14 +12312,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45078</v>
+        <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12327,7 +12332,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12364,14 +12369,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44395</v>
+        <v>45616</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12384,7 +12389,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12421,14 +12426,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44489</v>
+        <v>45877</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12441,7 +12446,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.1</v>
+        <v>7.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12478,14 +12483,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45910</v>
+        <v>45041</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12497,8 +12502,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12535,14 +12545,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45910</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12555,7 +12565,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12592,14 +12602,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12612,7 +12622,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12649,14 +12659,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>45713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12669,7 +12679,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12706,14 +12716,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12726,7 +12736,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12763,14 +12773,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44942</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12783,7 +12793,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12820,14 +12830,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12840,7 +12850,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12877,14 +12887,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>44489</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12897,7 +12907,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12934,14 +12944,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>45694</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12954,7 +12964,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12991,14 +13001,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45636</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13011,7 +13021,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13048,14 +13058,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45371</v>
+        <v>45720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13067,13 +13077,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>6.9</v>
+        <v>4.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13110,14 +13115,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13130,7 +13135,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13167,14 +13172,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45671</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13187,7 +13192,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13224,14 +13229,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13244,7 +13249,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13281,14 +13286,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44680</v>
+        <v>45378</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13301,7 +13306,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13338,14 +13343,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45743</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13358,7 +13363,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13395,14 +13400,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13415,7 +13420,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13452,14 +13457,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13472,7 +13477,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13509,14 +13514,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>45741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13529,7 +13534,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13566,14 +13571,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45378</v>
+        <v>45078</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13586,7 +13591,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13623,14 +13628,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45709</v>
+        <v>45699</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13643,7 +13648,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13680,14 +13685,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9570-2021</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44251</v>
+        <v>45709</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13699,13 +13704,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13742,14 +13742,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44847</v>
+        <v>45709.605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13799,14 +13799,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45232</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13856,14 +13856,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44266</v>
+        <v>44565</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13875,13 +13875,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13918,14 +13913,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45640</v>
+        <v>45548</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13937,8 +13932,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13975,14 +13975,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14032,14 +14032,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44489</v>
+        <v>44427</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14089,14 +14089,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44991</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14146,14 +14146,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45392</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14203,14 +14203,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>45230</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14260,14 +14260,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>45037.57375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14317,14 +14317,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45642</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14374,14 +14374,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>44754</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14393,8 +14393,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14431,14 +14436,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14451,7 +14456,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14488,14 +14493,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45109</v>
+        <v>45734</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14508,7 +14513,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14545,14 +14550,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45525</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14565,7 +14570,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14602,14 +14607,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44942</v>
+        <v>44936</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14622,7 +14627,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14659,14 +14664,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45519</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14679,7 +14684,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14716,14 +14721,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45112</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14736,7 +14741,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.5</v>
+        <v>10.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14773,14 +14778,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44550</v>
+        <v>44266</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14792,8 +14797,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14830,14 +14840,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14850,7 +14860,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14887,14 +14897,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45399</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14907,7 +14917,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14944,14 +14954,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45747</v>
+        <v>45558</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14964,7 +14974,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15001,14 +15011,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44623</v>
+        <v>45163</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15021,7 +15031,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15058,14 +15068,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45378</v>
+        <v>45463</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15077,8 +15087,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15115,14 +15130,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44959</v>
+        <v>45397</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15135,7 +15150,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15172,14 +15187,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45694</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15192,7 +15207,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>17.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15229,14 +15244,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45629</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15249,7 +15264,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15286,14 +15301,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45378</v>
+        <v>44991</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15306,7 +15321,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15343,14 +15358,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45548</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15362,13 +15377,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15405,14 +15415,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15425,7 +15435,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15462,14 +15472,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44896</v>
+        <v>45574</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15481,13 +15491,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15524,14 +15529,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15544,7 +15549,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15581,14 +15586,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45463</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15600,8 +15605,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15638,14 +15648,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45616</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15658,7 +15668,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15695,14 +15705,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45287</v>
+        <v>44655</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15715,7 +15725,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15752,14 +15762,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45287</v>
+        <v>45709</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15772,7 +15782,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15809,14 +15819,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45713</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15829,7 +15839,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15866,14 +15876,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15886,7 +15896,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15923,14 +15933,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45742</v>
+        <v>45484</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15943,7 +15953,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15980,14 +15990,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45579</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16037,14 +16047,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16057,7 +16067,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16094,14 +16104,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45460</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16114,7 +16124,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16151,14 +16161,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45166</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16170,13 +16180,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>24.9</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16213,14 +16218,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16233,7 +16238,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16270,14 +16275,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45463</v>
+        <v>45371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16295,7 +16300,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16332,14 +16337,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44941</v>
+        <v>45207</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16352,7 +16357,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16389,14 +16394,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45616</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16409,7 +16414,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16446,14 +16451,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45709</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16466,7 +16471,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16503,14 +16508,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>45704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16523,7 +16528,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16560,14 +16565,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45734</v>
+        <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16580,7 +16585,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16617,14 +16622,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16637,7 +16642,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16674,14 +16679,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45684</v>
+        <v>45621</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16693,13 +16698,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45574</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45436</v>
+        <v>45629</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.6</v>
+        <v>9.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16964,14 +16964,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 9570-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>44251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16983,8 +16983,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17021,14 +17026,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45413</v>
+        <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17041,7 +17046,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17078,14 +17083,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45761</v>
+        <v>45287</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17098,7 +17103,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.6</v>
+        <v>14.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17135,14 +17140,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44587</v>
+        <v>45753</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17155,7 +17160,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17192,14 +17197,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17212,7 +17217,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17249,14 +17254,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45621</v>
+        <v>44746</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17268,8 +17273,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17306,14 +17316,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45541</v>
+        <v>45247</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17326,7 +17336,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17363,14 +17373,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45541</v>
+        <v>45525</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17420,14 +17430,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45229</v>
+        <v>45378</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17440,7 +17450,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17477,14 +17487,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45484</v>
+        <v>45761</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17497,7 +17507,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17534,14 +17544,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44722</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17554,7 +17564,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17591,14 +17601,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44427</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17611,7 +17621,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17648,14 +17658,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44930</v>
+        <v>44550</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17668,7 +17678,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17705,14 +17715,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45636</v>
+        <v>45243</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17725,7 +17735,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17762,14 +17772,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17782,7 +17792,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17819,14 +17829,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45617</v>
+        <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17839,7 +17849,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17876,14 +17886,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45713</v>
+        <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17896,7 +17906,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17933,14 +17943,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45713</v>
+        <v>45309</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17953,7 +17963,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17990,14 +18000,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45520</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18010,7 +18020,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18047,14 +18057,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45245</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18067,7 +18077,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18104,14 +18114,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45253</v>
+        <v>45671</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18124,7 +18134,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18161,14 +18171,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>45720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18178,6 +18188,11 @@
       <c r="E303" t="inlineStr">
         <is>
           <t>KIL</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -18218,14 +18233,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>44775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18238,7 +18253,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18275,14 +18290,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45041</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18294,13 +18309,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18337,14 +18347,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18357,7 +18367,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18394,14 +18404,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>44941</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18414,7 +18424,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18451,14 +18461,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45030</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18508,14 +18518,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45694</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18528,7 +18538,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18565,14 +18575,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45734</v>
+        <v>45547</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18585,7 +18595,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18622,14 +18632,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45463</v>
+        <v>45640</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18641,13 +18651,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18684,14 +18689,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45448</v>
+        <v>45310</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18703,13 +18708,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G312" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18746,14 +18746,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45558</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18803,14 +18803,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45253</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18860,14 +18860,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45704</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18917,14 +18917,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45734</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18974,14 +18974,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45392</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19031,14 +19031,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44655</v>
+        <v>45574</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19088,14 +19088,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>44395</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19145,14 +19145,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44487</v>
+        <v>45616</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19202,14 +19202,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44299</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19259,14 +19259,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>44623</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19316,14 +19316,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45720</v>
+        <v>45684</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,8 +19335,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19373,14 +19378,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>44489</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19393,7 +19398,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19430,14 +19435,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45699</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19450,7 +19455,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19487,14 +19492,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44803</v>
+        <v>45109</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19507,7 +19512,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19544,14 +19549,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>45730</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19564,7 +19569,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19601,14 +19606,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45713</v>
+        <v>45616</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19621,7 +19626,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19658,14 +19663,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45436</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19678,7 +19683,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19715,14 +19720,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45574</v>
+        <v>45520</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19735,7 +19740,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19772,14 +19777,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>45030</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19792,7 +19797,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19829,14 +19834,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45616</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19849,7 +19854,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19886,14 +19891,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44775</v>
+        <v>45568</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19906,7 +19911,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19943,14 +19948,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45207</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19963,7 +19968,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20000,14 +20005,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44565</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20020,7 +20025,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20057,14 +20062,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45636</v>
+        <v>45252</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20077,7 +20082,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20114,14 +20119,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44746</v>
+        <v>44768</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20133,13 +20138,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G337" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20176,14 +20176,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>45694</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20233,14 +20233,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45287</v>
+        <v>45742</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20290,14 +20290,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45784</v>
+        <v>45734</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44893</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44287</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44927</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45397</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44847.71168981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>45741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44735.5222337963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45501.41740740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45501.43387731481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45243</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44803.65809027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45538.83505787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45037.58394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>45749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>45729</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45705</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>45294</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44754</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45264.3956712963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45419.63671296297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45163</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45037.57375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45756.64131944445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45568</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45753</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45812.63760416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44966.65414351852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44510.59939814815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45826.41162037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45827</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45252</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45547</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>45831</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45683.88302083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>45734</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>45232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>45897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>45833.65369212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44442.50498842593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>45548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45279.5659375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45271.46321759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45838.33539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45310</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45730</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45747</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45747.54640046296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>45629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45709.605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45349.71133101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44657.619375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45757.47975694444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45842</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45842</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44452.61798611111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45420.38435185186</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45531</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44825.60538194444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45923</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45923.56116898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44768</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45247</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45579</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>45309</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45709</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45709</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45230</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45271.87197916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45931</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45931</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45931</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45931</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45931</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>45931</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>45931</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45931</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45931</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45877</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45112</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45934</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45245</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44936</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44395</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45945</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45681.75200231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44489</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44386</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44581.85012731481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44581.86648148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45694</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45280.55791666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45953</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45953</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45671</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45956.7075</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45956.72236111111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45956.7144675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45642.33300925926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44680</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45961.3575462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45961.36053240741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>45965.74945601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45527.68989583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45527.69265046297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45427.49891203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45378</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45971.49379629629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>45709</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44995.49393518519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44266</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45978.80706018519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45640</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44578.78197916667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>45978.65318287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44991</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45384.35752314814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45742.64630787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45098.45302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45978</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45642</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45435.69123842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45525</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44942</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45910</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45910</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>46041.44421296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45404.50292824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44550</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45399.34143518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45399</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45378</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45694</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>45629</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45378</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>46001.56537037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>45548</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45061.56636574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44896</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44481.49040509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45586.37576388889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45616</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>46048.5056712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45287</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45287</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44927.65268518519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45754.88141203704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45742</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44592.81854166667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45271.45626157407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45460</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45166</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44511.61383101852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44941</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>45616</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>45601.45766203704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44915.56481481482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>45734</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>45582.49783564815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45684</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45574</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45574.53435185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45436</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44874.4543287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45600.57181712963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>46020.32520833334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45413</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45761</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44587</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45574.54210648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45621</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45541</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45541</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45229</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45484</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44427</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44571.57540509259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>46031.57333333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45636</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45091.60797453704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45713</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45520</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44907.48916666667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45253</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45367.43570601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44792.52918981481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45041</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44544.50324074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45460.44770833333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45030</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45694</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45734</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45463</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45558</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45671.57612268518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45392</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44655</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45367.44355324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44487</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44299</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45310.46356481482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45720</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45397.45333333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45699</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44803</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44964.41993055555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45713</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45436</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45574</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45642.32818287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45616</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>44775</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>44565</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44746</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45398.85325231482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45287</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45784</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45194.64255787037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45797.39939814815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45797.42086805555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45727.35804398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45798</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45807</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45531.45243055555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45538</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45194</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45811.35489583333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45811.48915509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45789</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45811.47222222222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45811.47616898148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45544</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44893</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45175</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44914</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44251</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44382</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44287</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44529.75387731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44410</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44594</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44847</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44846</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>44581</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>44572</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>44636</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44287</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44517.44190972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>44320</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>44371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>44483.44457175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44511.6343287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44511.64890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44517.4383912037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44550</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44589</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44482.56591435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44466</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44811</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44348</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45378</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>45756.48184027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44927</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45397</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44847.71168981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44847</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>45741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44735.5222337963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>45501.41740740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45501.43387731481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45243</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45743</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44803.65809027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45538.83505787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>45037.58394675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>45749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>45729</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45705</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>45294</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44754</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45264.3956712963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45419.63671296297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45163</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45037.57375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45756.64131944445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45568</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45753</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45812.63760416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44966.65414351852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44510.59939814815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45826.41162037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45827</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45252</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45547</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>45831</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45683.88302083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>45734</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>45232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>45897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>45897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>45833.65369212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44442.50498842593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>45548</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>45279.5659375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>45839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45271.46321759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>45720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45838.33539351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45310</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45730</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45747</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>45747.54640046296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>45629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45709.605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45349.71133101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44657.619375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>45757.47975694444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45842</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45842</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44452.61798611111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45420.38435185186</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45531</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44825.60538194444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>45923</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45923.56116898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>44768</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45247</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45579</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>45309</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45709</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45709</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45230</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45271.87197916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45931</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45931</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45931</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45931</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45931</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>45931</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>45931</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>45931</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>45931</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45931</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45931</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45877</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45112</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45934</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45245</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44936</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44395</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45945</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45681.75200231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44489</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44386</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44581.85012731481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44581.86648148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45694</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45280.55791666666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45953</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>45953</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45671</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45956.7075</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45956.72236111111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45956.7144675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45642.33300925926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44680</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45961.3575462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45961.36053240741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>45965.74945601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45527.68989583333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45527.69265046297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45427.49891203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45378</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45971.49379629629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>45709</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44995.49393518519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44266</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45978.80706018519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45640</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44578.78197916667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>45978.65318287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44489</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44991</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45384.35752314814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45742.64630787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45985</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45098.45302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45978</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45642</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45435.69123842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45525</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44942</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45910</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45910</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>46041.44421296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45404.50292824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44550</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45399.34143518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45399</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45378</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>45694</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>45629</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45378</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>46001.56537037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>45548</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45061.56636574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44896</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44481.49040509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45586.37576388889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45616</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>46048.5056712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45287</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45287</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44927.65268518519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45754.88141203704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45742</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44592.81854166667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45271.45626157407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45460</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45166</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44511.61383101852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45463</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44941</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>45616</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>45601.45766203704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44915.56481481482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>45734</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>45582.49783564815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45684</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45574</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45574.53435185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45436</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44874.4543287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45600.57181712963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>46020.32520833334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45413</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45761</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44587</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45574.54210648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>45621</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45541</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45541</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45229</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45484</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44427</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44571.57540509259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>46031.57333333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45636</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45091.60797453704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45713</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45520</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>44907.48916666667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45253</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45367.43570601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44792.52918981481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45041</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44544.50324074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45460.44770833333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45030</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45694</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45734</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45463</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45558</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45671.57612268518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45392</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44655</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45367.44355324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44487</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44299</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45310.46356481482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45720</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45397.45333333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45699</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>44803</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>44964.41993055555</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>45713</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45436</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45574</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45642.32818287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45616</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>44775</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>44565</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
         <v>45636</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>44746</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45398.85325231482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45287</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45784</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45194.64255787037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45797.39939814815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45797.42086805555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45727.35804398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45798</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45807</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45531.45243055555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45538</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45194</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>45811.35489583333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>45811.48915509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>45789</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45811.47222222222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45811.47616898148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38039-2024</t>
+          <t>A 9558-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45544</v>
+        <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,18 +769,23 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -794,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,31 +809,31 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ängsmetallvinge</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
         <v/>
       </c>
     </row>
@@ -842,7 +847,7 @@
         <v>45713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,14 +925,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56642-2022</t>
+          <t>A 62010-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -939,13 +944,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -979,478 +979,478 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41526-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Hökuggla</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 42668-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45907</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>11</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Kambräken</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 26849-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45093</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41526-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hökuggla</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 62010-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44914</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 9558-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44251</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ängsmetallvinge</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 9558-2021 artfynd.xlsx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 9558-2021 karta.png", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 9558-2021 FSC-klagomål.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 9558-2021 FSC-klagomål mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 9558-2021 tillsynsbegäran.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 9558-2021 tillsynsbegäran mail.docx", "A 9558-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1511,14 +1511,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64553-2021</t>
+          <t>A 34607-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44511.6452199074</v>
+        <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>16.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34607-2021</t>
+          <t>A 64553-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44382</v>
+        <v>44511.6452199074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>16.6</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44501</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,14 +1853,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15919-2021</t>
+          <t>A 1256-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44287</v>
+        <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1910,14 +1910,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 68728-2021</t>
+          <t>A 38635-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44529.75387731481</v>
+        <v>44410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1967,14 +1967,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38635-2021</t>
+          <t>A 46295-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44410</v>
+        <v>44847</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2024,14 +2024,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24765-2021</t>
+          <t>A 55070-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44340.60861111111</v>
+        <v>44474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2081,14 +2081,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 5415-2022</t>
+          <t>A 65271-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44594</v>
+        <v>44515.58267361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,14 +2138,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 65271-2021</t>
+          <t>A 15919-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44515.58267361111</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2195,14 +2195,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 1256-2022</t>
+          <t>A 57069-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44572</v>
+        <v>44482.56950231481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55070-2021</t>
+          <t>A 68728-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44474</v>
+        <v>44529.75387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46295-2022</t>
+          <t>A 36302-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44847</v>
+        <v>44803.65599537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2366,14 +2366,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57069-2021</t>
+          <t>A 5415-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44482.56950231481</v>
+        <v>44594</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2423,14 +2423,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36302-2022</t>
+          <t>A 24765-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44803.65599537037</v>
+        <v>44340.60861111111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2480,14 +2480,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45773-2022</t>
+          <t>A 43661-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44846</v>
+        <v>44433</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2537,14 +2537,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64508-2021</t>
+          <t>A 2993-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44511.60611111111</v>
+        <v>44581</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2594,14 +2594,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43661-2021</t>
+          <t>A 2997-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44433</v>
+        <v>44581</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2651,14 +2651,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2993-2022</t>
+          <t>A 2998-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2708,14 +2708,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2997-2022</t>
+          <t>A 1330-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2765,14 +2765,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2998-2022</t>
+          <t>A 12043-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44581</v>
+        <v>44636</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2822,14 +2822,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1330-2022</t>
+          <t>A 11785-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44572</v>
+        <v>44265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2879,14 +2879,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12043-2022</t>
+          <t>A 16167-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44636</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2936,14 +2936,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 11785-2021</t>
+          <t>A 70942-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44265</v>
+        <v>44538</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2993,14 +2993,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 70942-2021</t>
+          <t>A 16169-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44538</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3050,14 +3050,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16169-2021</t>
+          <t>A 48938-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44287</v>
+        <v>44453.34428240741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3107,14 +3107,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48938-2021</t>
+          <t>A 16168-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44453.34428240741</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3164,14 +3164,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16167-2021</t>
+          <t>A 12424-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44287</v>
+        <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3221,14 +3221,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16168-2021</t>
+          <t>A 65904-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44287</v>
+        <v>44517.44190972222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3278,14 +3278,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12424-2021</t>
+          <t>A 32368-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44266</v>
+        <v>44371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3335,14 +3335,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 65904-2021</t>
+          <t>A 21378-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44517.44190972222</v>
+        <v>44320</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3392,14 +3392,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21378-2021</t>
+          <t>A 43667-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44320</v>
+        <v>44433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3449,14 +3449,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32368-2021</t>
+          <t>A 4450-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44371</v>
+        <v>44589</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3506,14 +3506,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43667-2021</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44433</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3563,14 +3563,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4450-2022</t>
+          <t>A 45773-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44589</v>
+        <v>44846</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3620,14 +3620,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3677,14 +3677,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3734,14 +3734,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 65900-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44517.4383912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3791,14 +3791,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 65900-2021</t>
+          <t>A 64508-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44517.4383912037</v>
+        <v>44511.60611111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>44820.49023148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>44589</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44474.6218287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>44511.63989583333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>44502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>44522.37934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>44607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44859.60792824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4309,14 +4309,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73022-2021</t>
+          <t>A 33907-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44550</v>
+        <v>44790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4328,8 +4328,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4366,14 +4371,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33907-2022</t>
+          <t>A 4445-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44790</v>
+        <v>44589</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4385,13 +4390,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4428,14 +4428,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4445-2022</t>
+          <t>A 57065-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44589</v>
+        <v>44482.56591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4485,14 +4485,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57065-2021</t>
+          <t>A 73022-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44482.56591435185</v>
+        <v>44550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>44365.49597222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,14 +4599,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52526-2021</t>
+          <t>A 37962-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44466</v>
+        <v>44811</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4656,14 +4656,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37962-2022</t>
+          <t>A 52526-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44811</v>
+        <v>44466</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44517.43024305555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4884,14 +4884,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>45617</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4941,14 +4941,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44348</v>
+        <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4998,14 +4998,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45378</v>
+        <v>44348</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5055,14 +5055,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5112,14 +5112,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45252</v>
+        <v>44847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5169,14 +5169,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44927</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5226,14 +5226,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45397</v>
+        <v>45229</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5283,14 +5283,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5340,14 +5340,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44847</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5397,14 +5397,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45741</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5454,14 +5454,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5511,14 +5511,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45747</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5568,14 +5568,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>45729</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5625,14 +5625,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45243</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5682,14 +5682,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45743</v>
+        <v>45636</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5739,14 +5739,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5796,14 +5796,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>45436</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>17.9</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5853,14 +5853,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>45166</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5872,8 +5872,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>24.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5910,14 +5915,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45749</v>
+        <v>44896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5929,8 +5934,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5967,14 +5977,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45729</v>
+        <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5987,7 +5997,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6024,14 +6034,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45705</v>
+        <v>45616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6044,7 +6054,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6081,14 +6091,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45294</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6100,13 +6110,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6143,14 +6148,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44754</v>
+        <v>45734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6162,13 +6167,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6205,14 +6205,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6262,14 +6262,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44386</v>
+        <v>44927</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6281,13 +6281,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6324,14 +6319,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45287</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6344,7 +6339,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6381,14 +6376,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45531</v>
+        <v>45287</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6401,7 +6396,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6438,14 +6433,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45163</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6458,7 +6453,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6495,14 +6490,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45616</v>
+        <v>45413</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6515,7 +6510,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6552,14 +6547,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45252</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6572,7 +6567,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6605,18 +6600,38 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="inlineStr"/>
+      <c r="U101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45041</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,8 +6643,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6666,14 +6686,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45568</v>
+        <v>44847</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6686,7 +6706,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6723,14 +6743,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45753</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6743,7 +6763,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6780,14 +6800,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6800,7 +6820,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6837,14 +6857,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45399</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6857,7 +6877,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6894,14 +6914,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6914,7 +6934,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6951,14 +6971,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45541</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6971,7 +6991,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7008,14 +7028,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45827</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7028,7 +7048,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7065,14 +7085,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45252</v>
+        <v>45713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7085,7 +7105,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7118,38 +7138,18 @@
         <v>0</v>
       </c>
       <c r="R110" s="2" t="inlineStr"/>
-      <c r="U110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45547</v>
+        <v>45713</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7199,14 +7199,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45831</v>
+        <v>44942</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7256,14 +7256,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7313,14 +7313,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45734</v>
+        <v>45743</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7370,14 +7370,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45232</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7427,14 +7427,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45897</v>
+        <v>45548</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7446,8 +7446,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7484,14 +7489,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45897</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7504,7 +7509,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>9.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7541,14 +7546,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7561,7 +7566,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7598,14 +7603,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44315</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7618,7 +7623,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7655,14 +7660,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7675,7 +7680,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7712,14 +7717,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45548</v>
+        <v>45694</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,13 +7736,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7774,14 +7774,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45378</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7831,14 +7831,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45839</v>
+        <v>45378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7850,13 +7850,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7893,14 +7888,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45636</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7913,7 +7908,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7950,14 +7945,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45720</v>
+        <v>45705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7969,13 +7964,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8012,14 +8002,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8022,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8069,14 +8059,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45310</v>
+        <v>45720</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8079,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8126,14 +8116,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45730</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8146,7 +8136,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8183,14 +8173,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45747</v>
+        <v>45460</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8203,7 +8193,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8240,14 +8230,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45078</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8260,7 +8250,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8297,14 +8287,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45629</v>
+        <v>45699</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8317,7 +8307,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8354,14 +8344,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45709.605</v>
+        <v>45709</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8374,7 +8364,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8411,14 +8401,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45709.605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8431,7 +8421,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8468,14 +8458,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8488,7 +8478,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8525,14 +8515,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8545,7 +8535,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8582,14 +8572,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45287</v>
+        <v>44565</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8602,7 +8592,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>14.2</v>
+        <v>5.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8639,14 +8629,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45842</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8659,7 +8649,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>17.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8696,14 +8686,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45842</v>
+        <v>45548</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8715,8 +8705,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8753,14 +8748,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8773,7 +8768,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8810,14 +8805,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8830,7 +8825,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8867,14 +8862,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45531</v>
+        <v>44427</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8887,7 +8882,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.8</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8924,14 +8919,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>44991</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8944,7 +8939,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8981,14 +8976,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45923</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9001,7 +8996,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9038,14 +9033,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9053,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9095,14 +9090,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44768</v>
+        <v>44657.619375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9115,7 +9110,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9152,14 +9147,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45247</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9172,7 +9167,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9209,14 +9204,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45579</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9229,7 +9224,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9266,14 +9261,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45309</v>
+        <v>44959</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9286,7 +9281,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9323,14 +9318,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45709</v>
+        <v>45574</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9343,7 +9338,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9380,14 +9375,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45709</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9400,7 +9395,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9437,14 +9432,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45230</v>
+        <v>45392</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9457,7 +9452,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9494,14 +9489,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45230</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9514,7 +9509,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9551,14 +9546,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45931</v>
+        <v>45037.57375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9571,7 +9566,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9608,14 +9603,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931</v>
+        <v>44754</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9627,8 +9622,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9665,14 +9665,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45931</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9722,14 +9722,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45931</v>
+        <v>45734</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9779,14 +9779,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45931</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9836,14 +9836,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45931</v>
+        <v>44936</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9893,14 +9893,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45931</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9950,14 +9950,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45931</v>
+        <v>45463</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9969,8 +9969,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10007,14 +10012,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45931</v>
+        <v>45112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10027,7 +10032,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.4</v>
+        <v>10.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10064,14 +10069,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45931</v>
+        <v>44266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10083,8 +10088,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10121,14 +10131,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45931</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10141,7 +10151,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10178,14 +10188,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45877</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10198,7 +10208,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10235,14 +10245,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 9570-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45112</v>
+        <v>44251</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10254,8 +10264,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10292,14 +10307,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45934</v>
+        <v>45642</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10312,7 +10327,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10349,14 +10364,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45245</v>
+        <v>45287</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10369,7 +10384,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>14.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10406,14 +10421,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44936</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10426,7 +10441,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10463,14 +10478,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45078</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10483,7 +10498,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10520,14 +10535,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45939</v>
+        <v>44655</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10540,7 +10555,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10577,14 +10592,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44395</v>
+        <v>45709</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10597,7 +10612,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10634,14 +10649,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45945</v>
+        <v>45753</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10654,7 +10669,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10691,14 +10706,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>45558</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10711,7 +10726,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10748,14 +10763,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44489</v>
+        <v>45713</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10768,7 +10783,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10805,14 +10820,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44942</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10825,7 +10840,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10862,14 +10877,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44386</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10881,13 +10896,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10924,14 +10934,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>45163</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10944,7 +10954,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10981,14 +10991,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>45463</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11000,8 +11010,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11038,14 +11053,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45694</v>
+        <v>45397</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11058,7 +11073,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11095,14 +11110,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>44746</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11114,8 +11129,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11152,14 +11172,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45953</v>
+        <v>45484</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11172,7 +11192,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11209,14 +11229,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45953</v>
+        <v>45247</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11229,7 +11249,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11266,14 +11286,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45371</v>
+        <v>45579</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11285,13 +11305,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11328,14 +11343,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45671</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11385,14 +11400,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11405,7 +11420,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11442,14 +11457,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45525</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11462,7 +11477,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11499,14 +11514,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>45378</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11519,7 +11534,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11556,14 +11571,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>44489</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11576,7 +11591,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11613,14 +11628,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44680</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11633,7 +11648,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11670,14 +11685,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45761</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11690,7 +11705,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11727,14 +11742,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45294</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11746,8 +11761,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11784,14 +11804,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11804,7 +11824,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11841,14 +11861,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11861,7 +11881,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11898,14 +11918,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>45371</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11917,8 +11937,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11955,14 +11980,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11975,7 +12000,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12012,14 +12037,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45378</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12032,7 +12057,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12069,14 +12094,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>44550</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12089,7 +12114,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12126,14 +12151,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45709</v>
+        <v>45243</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12146,7 +12171,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12183,14 +12208,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 9570-2021</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44251</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12202,13 +12227,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12245,14 +12265,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44847</v>
+        <v>45531</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12265,7 +12285,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12302,14 +12322,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12322,7 +12342,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12359,14 +12379,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44266</v>
+        <v>44680</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12378,13 +12398,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12421,14 +12436,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>44386</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12442,11 +12457,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12483,14 +12498,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45640</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12503,7 +12518,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12540,14 +12555,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45734</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12560,7 +12575,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12597,14 +12612,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12616,13 +12631,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12659,14 +12669,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44489</v>
+        <v>45436</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12679,7 +12689,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12716,14 +12726,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44991</v>
+        <v>44386</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12735,8 +12745,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12773,14 +12788,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45309</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12793,7 +12808,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12830,14 +12845,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12850,7 +12865,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12887,14 +12902,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45985</v>
+        <v>45245</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12907,7 +12922,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12944,14 +12959,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>44487</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12964,7 +12979,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13001,14 +13016,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45978</v>
+        <v>45709</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13020,13 +13035,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13063,14 +13073,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45642</v>
+        <v>45704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13083,7 +13093,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13120,14 +13130,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13140,7 +13150,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13177,14 +13187,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45109</v>
+        <v>44722</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13197,7 +13207,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13234,14 +13244,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45525</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13254,7 +13264,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13291,14 +13301,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44942</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13311,7 +13321,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13348,14 +13358,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45519</v>
+        <v>45621</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13368,7 +13378,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13405,14 +13415,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45910</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13425,7 +13435,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13462,14 +13472,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45910</v>
+        <v>45616</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13482,7 +13492,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13519,14 +13529,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13539,7 +13549,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13576,14 +13586,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13596,7 +13606,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13633,14 +13643,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44550</v>
+        <v>45671</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13653,7 +13663,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13690,14 +13700,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>45720</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13709,8 +13719,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13747,14 +13762,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45399</v>
+        <v>45448</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13766,8 +13781,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13804,14 +13824,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45747</v>
+        <v>45897</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13824,7 +13844,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13861,14 +13881,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44623</v>
+        <v>45897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13881,7 +13901,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13918,14 +13938,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45378</v>
+        <v>44930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13938,7 +13958,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13975,14 +13995,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44959</v>
+        <v>44775</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13995,7 +14015,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14032,14 +14052,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45694</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14052,7 +14072,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14089,14 +14109,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45629</v>
+        <v>45747</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14109,7 +14129,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14146,14 +14166,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45378</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14166,7 +14186,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>11.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14203,14 +14223,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>45629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14223,7 +14243,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14260,14 +14280,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45548</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14279,13 +14299,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14322,14 +14337,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>44941</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14342,7 +14357,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14379,14 +14394,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44896</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14398,13 +14413,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14441,14 +14451,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14461,7 +14471,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14498,14 +14508,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45923</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14518,7 +14528,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14555,14 +14565,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45616</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14575,7 +14585,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14612,14 +14622,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45547</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14632,7 +14642,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14669,14 +14679,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45287</v>
+        <v>45640</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14689,7 +14699,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14726,14 +14736,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45287</v>
+        <v>45931</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14746,7 +14756,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14783,14 +14793,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45931</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14803,7 +14813,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14840,14 +14850,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45931</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14860,7 +14870,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>9.6</v>
+        <v>0.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14897,14 +14907,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45742</v>
+        <v>45931</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14917,7 +14927,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14954,14 +14964,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45931</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14974,7 +14984,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15011,14 +15021,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45931</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15031,7 +15041,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15068,14 +15078,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45460</v>
+        <v>45931</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15088,7 +15098,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15125,14 +15135,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45166</v>
+        <v>45931</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15144,13 +15154,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>24.9</v>
+        <v>0.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15187,14 +15192,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45310</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15207,7 +15212,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15244,14 +15249,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45463</v>
+        <v>45931</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15263,13 +15268,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15306,14 +15306,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44941</v>
+        <v>45931</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15363,14 +15363,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45616</v>
+        <v>45931</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15420,14 +15420,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15477,14 +15477,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>45253</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15534,14 +15534,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45734</v>
+        <v>45934</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15591,14 +15591,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15648,14 +15648,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45684</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15667,13 +15667,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15710,14 +15705,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45574</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15730,7 +15725,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15767,14 +15762,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45574</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15787,7 +15782,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15824,14 +15819,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45436</v>
+        <v>44395</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15844,7 +15839,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15881,14 +15876,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45939</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15901,7 +15896,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15938,14 +15933,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>45616</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15958,7 +15953,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15995,14 +15990,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16015,7 +16010,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16052,14 +16047,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45413</v>
+        <v>44623</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16072,7 +16067,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16109,14 +16104,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45761</v>
+        <v>45945</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16129,7 +16124,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16166,14 +16161,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44587</v>
+        <v>45684</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16185,8 +16180,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16223,14 +16223,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>44489</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16280,14 +16280,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45621</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16337,14 +16337,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45541</v>
+        <v>45109</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16394,14 +16394,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45541</v>
+        <v>45730</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16451,14 +16451,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45229</v>
+        <v>45953</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16508,14 +16508,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45484</v>
+        <v>45953</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16565,14 +16565,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44722</v>
+        <v>45616</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16622,14 +16622,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44427</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16679,14 +16679,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16736,14 +16736,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16793,14 +16793,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44930</v>
+        <v>45520</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16850,14 +16850,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45636</v>
+        <v>45030</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16907,14 +16907,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45956.7075</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16964,14 +16964,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45617</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17021,14 +17021,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45713</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17078,14 +17078,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45713</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17135,14 +17135,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45520</v>
+        <v>45568</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17192,14 +17192,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17249,14 +17249,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45253</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17306,14 +17306,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>45252</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17363,14 +17363,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>44768</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17420,14 +17420,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45041</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17437,11 +17437,6 @@
       <c r="E290" t="inlineStr">
         <is>
           <t>KIL</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -17482,14 +17477,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>45694</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17502,7 +17497,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17539,14 +17534,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>45742</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17559,7 +17554,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17596,14 +17591,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45030</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17616,7 +17611,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17653,14 +17648,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45694</v>
+        <v>45734</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17673,7 +17668,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17710,14 +17705,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45734</v>
+        <v>45694</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17730,7 +17725,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17767,14 +17762,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45463</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17786,13 +17781,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17829,14 +17819,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45448</v>
+        <v>45749</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,13 +17838,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G297" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17891,14 +17876,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45558</v>
+        <v>45541</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17911,7 +17896,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17948,14 +17933,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17968,7 +17953,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18005,14 +17990,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45704</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18024,8 +18009,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18062,14 +18052,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45734</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18081,8 +18071,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18119,14 +18114,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45392</v>
+        <v>45985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18139,7 +18134,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18176,14 +18171,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44655</v>
+        <v>45784</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18196,7 +18191,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18233,14 +18228,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>45978</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18252,8 +18247,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18290,14 +18290,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44487</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18347,14 +18347,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44299</v>
+        <v>45287</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18404,14 +18404,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>45910</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18461,14 +18461,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45720</v>
+        <v>45910</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18518,14 +18518,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45629</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18575,14 +18575,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45699</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18632,14 +18632,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44803</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18689,14 +18689,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18746,14 +18746,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45713</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18803,14 +18803,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45436</v>
+        <v>45798</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18860,14 +18860,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45574</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18917,14 +18917,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18974,14 +18974,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45616</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19031,14 +19031,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44775</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19088,14 +19088,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45207</v>
+        <v>45789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19145,14 +19145,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44565</v>
+        <v>45807</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19202,14 +19202,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45636</v>
+        <v>45194</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19259,14 +19259,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44746</v>
+        <v>45538</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,13 +19278,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>2.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19321,14 +19316,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19341,7 +19336,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19378,14 +19373,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45287</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19398,7 +19393,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19435,14 +19430,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45784</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19455,7 +19450,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19492,14 +19487,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45629</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19512,7 +19507,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19549,14 +19544,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19569,7 +19564,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19606,14 +19601,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19626,7 +19621,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19663,14 +19658,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45827</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19683,7 +19678,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19720,14 +19715,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45831</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19740,7 +19735,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19777,14 +19772,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45798</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19797,7 +19792,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19834,14 +19829,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45807</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19854,7 +19849,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19891,14 +19886,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>45839</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19910,8 +19905,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G333" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19948,14 +19948,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45538</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>9.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20005,14 +20005,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45194</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20062,14 +20062,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45842</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20119,14 +20119,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45842</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20176,14 +20176,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45789</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20233,14 +20233,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>45531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20290,14 +20290,14 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45877</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 38039-2024</t>
+          <t>A 26849-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45544</v>
+        <v>45093</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,17 +770,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,563 +804,563 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62010-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 42668-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45907</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 8909-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Desmeknopp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 41526-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Hökuggla</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 8909-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Desmeknopp</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 56642-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44893</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26849-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45093</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41526-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Hökuggla</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 62010-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44914</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,14 +1421,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 34607-2021</t>
+          <t>A 21233-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44382</v>
+        <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16874-2022</t>
+          <t>A 34607-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44675.64548611111</v>
+        <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>16.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 51174-2021</t>
+          <t>A 16874-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44461</v>
+        <v>44675.64548611111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21233-2021</t>
+          <t>A 51174-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44314</v>
+        <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44501</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15919-2021</t>
+          <t>A 68728-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44287</v>
+        <v>44529.75387731481</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 68728-2021</t>
+          <t>A 15919-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44529.75387731481</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>44594</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>44340.60861111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44572</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44474</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44847</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44433</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2561,14 +2561,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1330-2022</t>
+          <t>A 2993-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44572</v>
+        <v>44581</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2993-2022</t>
+          <t>A 2997-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2675,14 +2675,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2997-2022</t>
+          <t>A 2998-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2732,14 +2732,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2998-2022</t>
+          <t>A 1330-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>44636</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44265</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2903,14 +2903,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 70942-2021</t>
+          <t>A 16169-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44538</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2960,14 +2960,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16169-2021</t>
+          <t>A 48938-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44287</v>
+        <v>44453.34428240741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3017,14 +3017,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48938-2021</t>
+          <t>A 16167-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44453.34428240741</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3074,14 +3074,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16167-2021</t>
+          <t>A 70942-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44287</v>
+        <v>44538</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3131,14 +3131,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16168-2021</t>
+          <t>A 32368-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44287</v>
+        <v>44371</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3188,14 +3188,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12424-2021</t>
+          <t>A 16168-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44266</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3245,14 +3245,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 65904-2021</t>
+          <t>A 12424-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44517.44190972222</v>
+        <v>44266</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3302,14 +3302,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21378-2021</t>
+          <t>A 43667-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44320</v>
+        <v>44433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3359,14 +3359,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32368-2021</t>
+          <t>A 65904-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44371</v>
+        <v>44517.44190972222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3416,14 +3416,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43667-2021</t>
+          <t>A 21378-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44433</v>
+        <v>44320</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3473,14 +3473,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4450-2022</t>
+          <t>A 65900-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44589</v>
+        <v>44517.4383912037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3530,14 +3530,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 4450-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44589</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 66809-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44522.37934027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>13.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 40107-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44820.49023148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,8 +3663,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3701,14 +3706,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 65900-2021</t>
+          <t>A 55059-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44517.4383912037</v>
+        <v>44474.6218287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3721,7 +3726,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3758,14 +3763,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40107-2022</t>
+          <t>A 4448-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44820.49023148148</v>
+        <v>44589</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3777,13 +3782,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4448-2022</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44589</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 55059-2021</t>
+          <t>A 73022-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44474.6218287037</v>
+        <v>44550</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64552-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44511.63989583333</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62135-2021</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44502</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 66809-2021</t>
+          <t>A 64552-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44522.37934027778</v>
+        <v>44511.63989583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.7</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7653-2022</t>
+          <t>A 62135-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44607</v>
+        <v>44502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48787-2022</t>
+          <t>A 4445-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44859.60792824074</v>
+        <v>44589</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 73022-2021</t>
+          <t>A 7653-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44550</v>
+        <v>44607</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33907-2022</t>
+          <t>A 48787-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44790</v>
+        <v>44859.60792824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,13 +4295,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4338,14 +4333,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4445-2022</t>
+          <t>A 57065-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44589</v>
+        <v>44482.56591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4358,7 +4353,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4395,14 +4390,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57065-2021</t>
+          <t>A 30787-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44482.56591435185</v>
+        <v>44365.49597222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4415,7 +4410,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4452,14 +4447,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30787-2021</t>
+          <t>A 33907-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44365.49597222222</v>
+        <v>44790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4471,8 +4466,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>11.7</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>44466</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44811</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4623,14 +4623,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 71728-2021</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44543.45789351852</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 65891-2021</t>
+          <t>A 71728-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44517.43024305555</v>
+        <v>44543.45789351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44348</v>
+        <v>45617</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>17.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 53416-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45378</v>
+        <v>45229</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 65891-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44489</v>
+        <v>44517.43024305555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44565</v>
+        <v>45541</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.5</v>
+        <v>0.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45636</v>
+        <v>44348</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44386</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5155,13 +5155,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5198,14 +5193,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>44942</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5218,7 +5213,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5255,14 +5250,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44746</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5274,13 +5269,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5317,14 +5307,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45252</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5337,7 +5327,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5374,14 +5364,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44927</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5394,7 +5384,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5431,14 +5421,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45397</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5451,7 +5441,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5488,14 +5478,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45548</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5507,8 +5497,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5545,14 +5540,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44847</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5565,7 +5560,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5602,14 +5597,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5622,7 +5617,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5659,14 +5654,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45287</v>
+        <v>45729</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5679,7 +5674,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5716,14 +5711,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45784</v>
+        <v>44315</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5736,7 +5731,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5773,14 +5768,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45378</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5793,7 +5788,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5830,14 +5825,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45629</v>
+        <v>45378</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5850,7 +5845,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5887,14 +5882,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45934</v>
+        <v>45705</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5907,7 +5902,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5944,14 +5939,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45741</v>
+        <v>45460</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5964,7 +5959,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6001,14 +5996,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6021,7 +6016,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6058,14 +6053,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45897</v>
+        <v>45734</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6078,7 +6073,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6115,14 +6110,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45897</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6135,7 +6130,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6172,14 +6167,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45547</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6192,7 +6187,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6229,14 +6224,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>45640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6249,7 +6244,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6286,14 +6281,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45243</v>
+        <v>45413</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6306,7 +6301,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6343,14 +6338,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45743</v>
+        <v>45252</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6363,7 +6358,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6396,18 +6391,38 @@
         <v>0</v>
       </c>
       <c r="R98" s="2" t="inlineStr"/>
+      <c r="U98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y98">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>44847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6420,7 +6435,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6457,14 +6472,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>44942</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6477,7 +6492,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6514,14 +6529,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6534,7 +6549,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6571,14 +6586,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6591,7 +6606,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>17.9</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6628,14 +6643,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45399</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6648,7 +6663,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6685,14 +6700,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>45310</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6705,7 +6720,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6742,14 +6757,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45747</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6762,7 +6777,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6799,14 +6814,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6819,7 +6834,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>11.5</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6856,14 +6871,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>44657.619375</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6876,7 +6891,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6913,14 +6928,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45629</v>
+        <v>45253</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6933,7 +6948,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6970,14 +6985,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45798</v>
+        <v>44991</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6990,7 +7005,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7027,14 +7042,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45749</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7047,7 +7062,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7084,14 +7099,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45729</v>
+        <v>44847</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7104,7 +7119,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7141,14 +7156,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45705</v>
+        <v>44959</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7161,7 +7176,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7198,14 +7213,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45939</v>
+        <v>44927</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7218,7 +7233,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7255,14 +7270,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44386</v>
+        <v>45287</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,13 +7289,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7317,14 +7327,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45294</v>
+        <v>45287</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7336,13 +7346,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7379,14 +7384,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45807</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7399,7 +7404,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7436,14 +7441,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44754</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7455,13 +7460,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7498,14 +7498,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7555,14 +7555,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45538</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7612,14 +7612,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45194</v>
+        <v>45574</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7669,14 +7669,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>44395</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7726,14 +7726,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7783,14 +7783,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45789</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7840,14 +7840,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7897,14 +7897,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7954,14 +7954,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45436</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8011,14 +8011,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8068,14 +8068,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45923</v>
+        <v>45166</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,8 +8087,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>24.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8125,14 +8130,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>44299</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8145,7 +8150,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8182,14 +8187,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45531</v>
+        <v>44623</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8202,7 +8207,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8239,14 +8244,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45163</v>
+        <v>45616</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8259,7 +8264,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8296,14 +8301,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45616</v>
+        <v>45684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,8 +8320,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8353,14 +8363,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45037.57375</v>
+        <v>44489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8373,7 +8383,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8410,14 +8420,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45931</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8430,7 +8440,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8467,14 +8477,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45931</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8487,7 +8497,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8524,14 +8534,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45931</v>
+        <v>45041</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,8 +8553,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8581,14 +8596,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45931</v>
+        <v>45294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,8 +8615,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8638,14 +8658,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45931</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8658,7 +8678,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8695,14 +8715,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>45519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8715,7 +8735,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8752,14 +8772,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45931</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8772,7 +8792,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8809,14 +8829,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45931</v>
+        <v>45109</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8829,7 +8849,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8866,14 +8886,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45931</v>
+        <v>45531</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8886,7 +8906,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8923,14 +8943,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45931</v>
+        <v>45730</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8943,7 +8963,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8980,14 +9000,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45931</v>
+        <v>44386</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8999,8 +9019,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9037,14 +9062,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45931</v>
+        <v>45713</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9057,7 +9082,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9094,14 +9119,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45568</v>
+        <v>45713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9114,7 +9139,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9151,14 +9176,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45734</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9171,7 +9196,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9208,14 +9233,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45827</v>
+        <v>45574</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9228,7 +9253,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9265,14 +9290,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45753</v>
+        <v>45436</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9285,7 +9310,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9322,14 +9347,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9342,7 +9367,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9379,14 +9404,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45831</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9399,7 +9424,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9436,14 +9461,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>44487</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9456,7 +9481,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9493,14 +9518,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45252</v>
+        <v>45616</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9513,7 +9538,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9546,38 +9571,18 @@
         <v>0</v>
       </c>
       <c r="R153" s="2" t="inlineStr"/>
-      <c r="U153">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V153">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W153">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X153">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y153">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9590,7 +9595,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9627,14 +9632,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45547</v>
+        <v>45520</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9647,7 +9652,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9684,14 +9689,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45030</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9704,7 +9709,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9741,14 +9746,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45734</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9761,7 +9766,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9798,14 +9803,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45232</v>
+        <v>45694</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9818,7 +9823,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9855,14 +9860,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45945</v>
+        <v>45636</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9875,7 +9880,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9912,14 +9917,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44315</v>
+        <v>45448</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9931,8 +9936,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9969,14 +9979,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45839</v>
+        <v>45720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9988,13 +9998,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10031,14 +10036,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10051,7 +10056,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10088,14 +10093,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10108,7 +10113,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10145,14 +10150,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45548</v>
+        <v>44930</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10164,13 +10169,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10207,14 +10207,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45568</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10264,14 +10264,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10321,14 +10321,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45720</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10340,13 +10340,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10383,14 +10378,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45310</v>
+        <v>44587</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10403,7 +10398,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10440,14 +10435,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45730</v>
+        <v>45252</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10460,7 +10455,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10497,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45709.605</v>
+        <v>44768</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10517,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10554,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10574,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10611,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10631,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10668,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45694</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10688,7 +10683,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10725,14 +10720,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45842</v>
+        <v>45742</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10745,7 +10740,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10782,14 +10777,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45842</v>
+        <v>45747</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10802,7 +10797,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10839,14 +10834,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45531</v>
+        <v>45636</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10859,7 +10854,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10896,14 +10891,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45287</v>
+        <v>45734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10916,7 +10911,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>14.2</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10953,14 +10948,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45953</v>
+        <v>45378</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10973,7 +10968,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11010,14 +11005,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45953</v>
+        <v>45743</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11030,7 +11025,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11067,14 +11062,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45694</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11087,7 +11082,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11124,14 +11119,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11144,7 +11139,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11181,14 +11176,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>44896</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11200,8 +11195,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11238,14 +11238,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44768</v>
+        <v>45749</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11295,14 +11295,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45247</v>
+        <v>45463</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11314,8 +11314,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11352,14 +11357,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45541</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11372,7 +11377,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11409,14 +11414,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45579</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11429,7 +11434,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11466,14 +11471,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11486,7 +11491,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11523,14 +11528,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45309</v>
+        <v>45741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11543,7 +11548,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11580,14 +11585,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45709</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11600,7 +11605,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11637,14 +11642,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45709</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11657,7 +11662,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11694,14 +11699,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>44489</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11714,7 +11719,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11751,14 +11756,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45230</v>
+        <v>45078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11771,7 +11776,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11808,14 +11813,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>44655</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11828,7 +11833,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11865,14 +11870,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45877</v>
+        <v>45709</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11885,7 +11890,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11922,14 +11927,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45699</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11942,7 +11947,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11979,14 +11984,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45112</v>
+        <v>45709</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11999,7 +12004,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12036,14 +12041,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>45709.605</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12056,7 +12061,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12093,14 +12098,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45245</v>
+        <v>45232</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12113,7 +12118,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12150,14 +12155,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44936</v>
+        <v>45784</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12170,7 +12175,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12207,14 +12212,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45713</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12227,7 +12232,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12264,14 +12269,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45078</v>
+        <v>44565</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12284,7 +12289,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12321,14 +12326,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44395</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12341,7 +12346,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12378,14 +12383,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>45548</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12397,8 +12402,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12435,14 +12445,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>44386</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12454,8 +12464,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12492,14 +12507,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44942</v>
+        <v>45484</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12512,7 +12527,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12549,14 +12564,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12569,7 +12584,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12606,14 +12621,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>44427</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12626,7 +12641,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12663,14 +12678,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45694</v>
+        <v>45579</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12683,7 +12698,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12720,14 +12735,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12740,7 +12755,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12777,14 +12792,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45371</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12796,13 +12811,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12839,14 +12849,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45671</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12859,7 +12869,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12896,14 +12906,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12915,13 +12925,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12958,14 +12963,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12978,7 +12983,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13015,14 +13020,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44680</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13035,7 +13040,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13072,14 +13077,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>45371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13093,11 +13098,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13134,14 +13139,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45985</v>
+        <v>45392</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13154,7 +13159,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13191,14 +13196,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13211,7 +13216,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13248,14 +13253,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>45230</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13268,7 +13273,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13305,14 +13310,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>45287</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13325,7 +13330,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13362,14 +13367,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45978</v>
+        <v>45037.57375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13381,13 +13386,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13424,14 +13424,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45378</v>
+        <v>44754</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13443,8 +13443,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13481,14 +13486,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45709</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13501,7 +13506,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13538,14 +13543,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44847</v>
+        <v>45207</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13558,7 +13563,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13595,14 +13600,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13615,7 +13620,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13652,14 +13657,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44266</v>
+        <v>45734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13671,13 +13676,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13714,14 +13714,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45640</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13771,14 +13771,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45910</v>
+        <v>44936</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13828,14 +13828,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45910</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13885,14 +13885,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45112</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>10.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13942,14 +13942,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45897</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13999,14 +13999,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44489</v>
+        <v>44266</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14018,8 +14018,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14056,14 +14061,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44991</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14076,7 +14081,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14113,14 +14118,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45897</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14133,7 +14138,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14170,14 +14175,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14190,7 +14195,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14227,14 +14232,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14247,7 +14252,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14284,14 +14289,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45642</v>
+        <v>45747</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14304,7 +14309,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14341,14 +14346,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14361,7 +14366,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>11.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14398,14 +14403,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>45629</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14418,7 +14423,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14455,14 +14460,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45109</v>
+        <v>45558</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14475,7 +14480,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14512,14 +14517,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45525</v>
+        <v>45163</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14532,7 +14537,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14569,14 +14574,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44942</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14589,7 +14594,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14626,14 +14631,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45519</v>
+        <v>45463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14645,8 +14650,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14683,14 +14693,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45397</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14703,7 +14713,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14740,14 +14750,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14760,7 +14770,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14797,14 +14807,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44550</v>
+        <v>45798</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14817,7 +14827,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14854,14 +14864,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14874,7 +14884,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14911,14 +14921,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45399</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14931,7 +14941,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14968,14 +14978,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45747</v>
+        <v>45709</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14988,7 +14998,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15025,14 +15035,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44623</v>
+        <v>45704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15082,14 +15092,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45378</v>
+        <v>44722</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15102,7 +15112,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>7.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15139,14 +15149,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44959</v>
+        <v>45923</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15159,7 +15169,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15196,14 +15206,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45694</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15216,7 +15226,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15253,14 +15263,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45629</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15273,7 +15283,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15310,14 +15320,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45378</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15330,7 +15340,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15367,14 +15377,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45548</v>
+        <v>45621</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15386,13 +15396,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15429,14 +15434,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15449,7 +15454,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15486,14 +15491,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44896</v>
+        <v>45789</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15505,13 +15510,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15548,14 +15548,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>45616</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15605,14 +15605,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45629</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.7</v>
+        <v>7.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15662,14 +15662,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45616</v>
+        <v>45807</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15719,14 +15719,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45287</v>
+        <v>45194</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15776,14 +15776,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45287</v>
+        <v>45538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15833,14 +15833,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15890,14 +15890,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15947,14 +15947,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45742</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16004,14 +16004,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16061,14 +16061,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16118,14 +16118,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45931</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16175,14 +16175,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45460</v>
+        <v>45931</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16232,14 +16232,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45166</v>
+        <v>45931</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16251,13 +16251,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>24.9</v>
+        <v>0.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16294,14 +16289,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>45931</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16314,7 +16309,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16351,14 +16346,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45463</v>
+        <v>45931</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16370,13 +16365,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16413,14 +16403,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44941</v>
+        <v>45931</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16433,7 +16423,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16470,14 +16460,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45616</v>
+        <v>45931</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16490,7 +16480,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16527,14 +16517,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45931</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16547,7 +16537,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16584,14 +16574,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>45931</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16604,7 +16594,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16641,14 +16631,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45734</v>
+        <v>45931</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16661,7 +16651,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16698,14 +16688,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45931</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16718,7 +16708,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16755,14 +16745,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45684</v>
+        <v>45934</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16774,13 +16764,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16817,14 +16802,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45574</v>
+        <v>45642</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16837,7 +16822,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16874,14 +16859,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45287</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16894,7 +16879,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.6</v>
+        <v>14.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16931,14 +16916,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45436</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16951,7 +16936,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16988,14 +16973,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17008,7 +16993,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17045,14 +17030,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>45753</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17065,7 +17050,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17102,14 +17087,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45413</v>
+        <v>45827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17122,7 +17107,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17159,14 +17144,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45761</v>
+        <v>45945</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17179,7 +17164,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17216,14 +17201,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44587</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17236,7 +17221,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17273,14 +17258,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45831</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17293,7 +17278,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17330,14 +17315,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>44746</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17349,8 +17334,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G289" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17387,14 +17377,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45247</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17407,7 +17397,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17444,14 +17434,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45621</v>
+        <v>45525</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17464,7 +17454,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17501,14 +17491,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45541</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17521,7 +17511,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17558,14 +17548,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45541</v>
+        <v>45378</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17578,7 +17568,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17615,14 +17605,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 53416-2023</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45229</v>
+        <v>45761</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17635,7 +17625,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17672,14 +17662,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45484</v>
+        <v>45953</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17692,7 +17682,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17729,14 +17719,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44722</v>
+        <v>45953</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17749,7 +17739,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17786,14 +17776,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44427</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17806,7 +17796,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17843,14 +17833,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44930</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17863,7 +17853,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17900,14 +17890,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45636</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17920,7 +17910,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17957,14 +17947,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17977,7 +17967,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18014,14 +18004,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45617</v>
+        <v>45839</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18033,8 +18023,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18071,14 +18066,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45713</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18091,7 +18086,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18128,14 +18123,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45713</v>
+        <v>44550</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18148,7 +18143,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18185,14 +18180,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45520</v>
+        <v>45956.7075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18205,7 +18200,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18242,14 +18237,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45243</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18262,7 +18257,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18299,14 +18294,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45253</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18319,7 +18314,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18356,14 +18351,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>44680</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18376,7 +18371,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18413,14 +18408,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18433,7 +18428,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18470,14 +18465,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45041</v>
+        <v>45842</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18489,13 +18484,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18532,14 +18522,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>44803</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18552,7 +18542,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>9.6</v>
+        <v>2.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18589,14 +18579,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18609,7 +18599,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18646,14 +18636,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45030</v>
+        <v>45309</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18666,7 +18656,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18703,14 +18693,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45694</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18723,7 +18713,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18760,14 +18750,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45734</v>
+        <v>45842</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18780,7 +18770,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18817,14 +18807,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45463</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18836,13 +18826,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18879,14 +18864,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45448</v>
+        <v>45245</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18898,13 +18883,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18941,14 +18921,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45558</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18961,7 +18941,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18998,14 +18978,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45531</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19018,7 +18998,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19055,14 +19035,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45704</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19075,7 +19055,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19112,14 +19092,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45734</v>
+        <v>45671</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19132,7 +19112,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19169,14 +19149,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45392</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19186,6 +19166,11 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>KIL</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -19226,14 +19211,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44655</v>
+        <v>45720</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19245,8 +19230,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19283,14 +19273,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19302,8 +19292,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19340,14 +19335,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44487</v>
+        <v>45985</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19360,7 +19355,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19397,14 +19392,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44299</v>
+        <v>45978</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19416,8 +19411,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19454,14 +19454,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>45877</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19511,14 +19511,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45720</v>
+        <v>45910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19568,14 +19568,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45910</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19625,14 +19625,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45699</v>
+        <v>44775</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19682,14 +19682,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44803</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19739,14 +19739,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19796,14 +19796,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45713</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19853,14 +19853,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45436</v>
+        <v>44941</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19910,14 +19910,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45574</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19967,14 +19967,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20024,14 +20024,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45616</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20081,14 +20081,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44775</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45207</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,14 +750,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 26849-2023</t>
+          <t>A 62010-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45093</v>
+        <v>44914</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,574 +804,574 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ögonpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 42668-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45907</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 8909-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Desmeknopp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41526-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Hökuggla</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56642-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 38039-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26849-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 26849-2023 artfynd.xlsx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 26849-2023 karta.png", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 26849-2023 FSC-klagomål.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 26849-2023 FSC-klagomål mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 26849-2023 tillsynsbegäran.docx", "A 26849-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 26849-2023 tillsynsbegäran mail.docx", "A 26849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62010-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44914</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ögonpyrola</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 62010-2022 artfynd.xlsx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 62010-2022 karta.png", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 62010-2022 FSC-klagomål.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 62010-2022 FSC-klagomål mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 62010-2022 tillsynsbegäran.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 62010-2022 tillsynsbegäran mail.docx", "A 62010-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 42668-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 42668-2025 artfynd.xlsx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 42668-2025 karta.png", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 42668-2025 FSC-klagomål.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 42668-2025 FSC-klagomål mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 42668-2025 tillsynsbegäran.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 42668-2025 tillsynsbegäran mail.docx", "A 42668-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 8909-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Desmeknopp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 8909-2025 artfynd.xlsx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 8909-2025 karta.png", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 8909-2025 FSC-klagomål.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 8909-2025 FSC-klagomål mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 8909-2025 tillsynsbegäran.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 8909-2025 tillsynsbegäran mail.docx", "A 8909-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 41526-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Hökuggla</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 41526-2023 artfynd.xlsx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 41526-2023 karta.png", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 41526-2023 FSC-klagomål.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 41526-2023 FSC-klagomål mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 41526-2023 tillsynsbegäran.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 41526-2023 tillsynsbegäran mail.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/fåglar/A 41526-2023 prioriterade fågelarter.docx", "A 41526-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 56642-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44893</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 56642-2022 artfynd.xlsx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 56642-2022 karta.png", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 56642-2022 FSC-klagomål.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 56642-2022 FSC-klagomål mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 56642-2022 tillsynsbegäran.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 56642-2022 tillsynsbegäran mail.docx", "A 56642-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 38039-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KIL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/artfynd/A 38039-2024 artfynd.xlsx", "A 38039-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/kartor/A 38039-2024 karta.png", "A 38039-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 38039-2024 FSC-klagomål.docx", "A 38039-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 38039-2024 FSC-klagomål mail.docx", "A 38039-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 38039-2024 tillsynsbegäran.docx", "A 38039-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 38039-2024 tillsynsbegäran mail.docx", "A 38039-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 64553-2021</t>
+          <t>A 21233-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44511.6452199074</v>
+        <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 21233-2021</t>
+          <t>A 64553-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44314</v>
+        <v>44511.6452199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,14 +1535,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 16874-2022</t>
+          <t>A 51174-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44675.64548611111</v>
+        <v>44461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51174-2021</t>
+          <t>A 16874-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44461</v>
+        <v>44675.64548611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44501</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44410</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 68728-2021</t>
+          <t>A 15919-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44529.75387731481</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15919-2021</t>
+          <t>A 68728-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44287</v>
+        <v>44529.75387731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 5415-2022</t>
+          <t>A 24765-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44594</v>
+        <v>44340.60861111111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24765-2021</t>
+          <t>A 5415-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44340.60861111111</v>
+        <v>44594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>44515.58267361111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44572</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2162,14 +2162,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55070-2021</t>
+          <t>A 46295-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44474</v>
+        <v>44847</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2219,14 +2219,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46295-2022</t>
+          <t>A 55070-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44847</v>
+        <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>44803.65599537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44482.56950231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44511.60611111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44433</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>44581</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>44581</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44581</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44572</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44636</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44265</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44453.34428240741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3017,14 +3017,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16167-2021</t>
+          <t>A 70942-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44287</v>
+        <v>44538</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3074,14 +3074,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 70942-2021</t>
+          <t>A 16167-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44538</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3131,14 +3131,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32368-2021</t>
+          <t>A 12424-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44371</v>
+        <v>44266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>44287</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3245,14 +3245,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12424-2021</t>
+          <t>A 65904-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44266</v>
+        <v>44517.44190972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3302,14 +3302,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43667-2021</t>
+          <t>A 21378-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44433</v>
+        <v>44320</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3359,14 +3359,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 65904-2021</t>
+          <t>A 32368-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44517.44190972222</v>
+        <v>44371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3416,14 +3416,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21378-2021</t>
+          <t>A 43667-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44320</v>
+        <v>44433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3473,14 +3473,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 65900-2021</t>
+          <t>A 4450-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44517.4383912037</v>
+        <v>44589</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3530,14 +3530,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4450-2022</t>
+          <t>A 57314-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44589</v>
+        <v>44483.44457175926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 66809-2021</t>
+          <t>A 64543-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44522.37934027778</v>
+        <v>44511.6343287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>13.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3644,14 +3644,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40107-2022</t>
+          <t>A 64559-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44820.49023148148</v>
+        <v>44511.64890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,13 +3663,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3706,14 +3701,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55059-2021</t>
+          <t>A 65900-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44474.6218287037</v>
+        <v>44517.4383912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3726,7 +3721,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3763,14 +3758,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 4448-2022</t>
+          <t>A 40107-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44589</v>
+        <v>44820.49023148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3782,8 +3777,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57314-2021</t>
+          <t>A 4448-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44483.44457175926</v>
+        <v>44589</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 73022-2021</t>
+          <t>A 55059-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44550</v>
+        <v>44474.6218287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64543-2021</t>
+          <t>A 64552-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44511.6343287037</v>
+        <v>44511.63989583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64559-2021</t>
+          <t>A 62135-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44511.64890046296</v>
+        <v>44502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64552-2021</t>
+          <t>A 66809-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44511.63989583333</v>
+        <v>44522.37934027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>13.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62135-2021</t>
+          <t>A 7653-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44502</v>
+        <v>44607</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4445-2022</t>
+          <t>A 48787-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44589</v>
+        <v>44859.60792824074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7653-2022</t>
+          <t>A 73022-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44607</v>
+        <v>44550</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48787-2022</t>
+          <t>A 33907-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44859.60792824074</v>
+        <v>44790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,8 +4295,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4333,14 +4338,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57065-2021</t>
+          <t>A 4445-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44482.56591435185</v>
+        <v>44589</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4353,7 +4358,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4390,14 +4395,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30787-2021</t>
+          <t>A 57065-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44365.49597222222</v>
+        <v>44482.56591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4410,7 +4415,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>11.7</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4447,14 +4452,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33907-2022</t>
+          <t>A 30787-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44790</v>
+        <v>44365.49597222222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4466,13 +4471,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>11.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>44466</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44811</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4623,14 +4623,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57743-2021</t>
+          <t>A 56762-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44484.54023148148</v>
+        <v>44481.48305555555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56762-2021</t>
+          <t>A 71728-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44481.48305555555</v>
+        <v>44543.45789351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 71728-2021</t>
+          <t>A 65891-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44543.45789351852</v>
+        <v>44517.43024305555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54497-2024</t>
+          <t>A 26645-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45617</v>
+        <v>44348</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36971-2024</t>
+          <t>A 57743-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45538.83505787037</v>
+        <v>44484.54023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>17.9</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>45229</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4965,14 +4965,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 65891-2021</t>
+          <t>A 54497-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44517.43024305555</v>
+        <v>45617</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37620-2024</t>
+          <t>A 62807-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45541</v>
+        <v>45271.87197916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26645-2021</t>
+          <t>A 20357-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15721-2024</t>
+          <t>A 14675-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45404.50292824074</v>
+        <v>45397.45333333333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2708-2023</t>
+          <t>A 12195-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44942</v>
+        <v>45729</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50252-2024</t>
+          <t>A 41074-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45600.57181712963</v>
+        <v>44825.60538194444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10634-2024</t>
+          <t>A 12930-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45367.43570601852</v>
+        <v>45734</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62807-2023</t>
+          <t>A 17946-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45271.87197916667</v>
+        <v>45419.63671296297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4832-2022</t>
+          <t>A 46117-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44592.81854166667</v>
+        <v>44847</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39039-2024</t>
+          <t>A 17197-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45548</v>
+        <v>45413</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5497,13 +5497,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5540,14 +5535,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46445-2024</t>
+          <t>A 59064-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45582.49783564815</v>
+        <v>45252</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5560,7 +5555,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5593,18 +5588,38 @@
         <v>0</v>
       </c>
       <c r="R84" s="2" t="inlineStr"/>
+      <c r="U84">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="V84">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="W84">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="X84">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y84">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14675-2024</t>
+          <t>A 12652-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45397.45333333333</v>
+        <v>45384.35752314814</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5617,7 +5632,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5654,14 +5669,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12195-2025</t>
+          <t>A 14984-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45729</v>
+        <v>45399.34143518518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5674,7 +5689,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5711,14 +5726,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20357-2021</t>
+          <t>A 14987-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44315</v>
+        <v>45399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5731,7 +5746,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5768,14 +5783,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12272-2024</t>
+          <t>A 46288-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45378</v>
+        <v>44847.71168981482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5788,7 +5803,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5825,14 +5840,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12281-2024</t>
+          <t>A 46290-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45378</v>
+        <v>44847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5845,7 +5860,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5882,14 +5897,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7586-2025</t>
+          <t>A 3-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45705</v>
+        <v>44927</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5902,7 +5917,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5939,14 +5954,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24635-2024</t>
+          <t>A 65004-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45460</v>
+        <v>45287</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5959,7 +5974,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5996,14 +6011,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41074-2022</t>
+          <t>A 65008-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44825.60538194444</v>
+        <v>45287</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6016,7 +6031,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6053,14 +6068,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12930-2025</t>
+          <t>A 10635-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45734</v>
+        <v>45367.44355324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6073,7 +6088,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6110,14 +6125,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17946-2024</t>
+          <t>A 62667-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45419.63671296297</v>
+        <v>45271.45626157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6130,7 +6145,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6167,14 +6182,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38835-2024</t>
+          <t>A 242-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45547</v>
+        <v>45294</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6186,8 +6201,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6224,14 +6244,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59871-2024</t>
+          <t>A 44677-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45640</v>
+        <v>45574.54210648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6244,7 +6264,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6281,14 +6301,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17197-2024</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45413</v>
+        <v>44386</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6300,8 +6320,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6338,14 +6363,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59064-2023</t>
+          <t>A 35611-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45252</v>
+        <v>45531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6358,7 +6383,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6391,38 +6416,18 @@
         <v>0</v>
       </c>
       <c r="R98" s="2" t="inlineStr"/>
-      <c r="U98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/knärot/A 59064-2023 karta knärot.png", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="V98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomål/A 59064-2023 FSC-klagomål.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="W98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/klagomålsmail/A 59064-2023 FSC-klagomål mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="X98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsyn/A 59064-2023 tillsynsbegäran.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1715/tillsynsmail/A 59064-2023 tillsynsbegäran mail.docx", "A 59064-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46117-2022</t>
+          <t>A 13094-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44847</v>
+        <v>45734</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6435,7 +6440,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6472,14 +6477,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2688-2023</t>
+          <t>A 57967-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44942</v>
+        <v>44487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6492,7 +6497,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6529,14 +6534,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12652-2024</t>
+          <t>A 20745-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45384.35752314814</v>
+        <v>45436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6549,7 +6554,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6586,14 +6591,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14984-2024</t>
+          <t>A 56765-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45399.34143518518</v>
+        <v>44481.49040509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6606,7 +6611,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6643,14 +6648,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14987-2024</t>
+          <t>A 22798-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45399</v>
+        <v>45448</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6662,8 +6667,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6700,14 +6710,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2309-2024</t>
+          <t>A 666-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45310</v>
+        <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6720,7 +6730,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6757,14 +6767,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62669-2023</t>
+          <t>A 35817-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45271.46321759259</v>
+        <v>44386</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6776,8 +6786,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6814,14 +6829,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2306-2024</t>
+          <t>A 3996-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45310.46356481482</v>
+        <v>44587</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6834,7 +6849,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6871,14 +6886,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15039-2022</t>
+          <t>A 35453-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44657.619375</v>
+        <v>45531.45243055555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6891,7 +6906,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6928,14 +6943,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59200-2023</t>
+          <t>A 22566-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45253</v>
+        <v>45789</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6948,7 +6963,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6985,14 +7000,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10910-2023</t>
+          <t>A 20476-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44991</v>
+        <v>45435.69123842593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7005,7 +7020,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7042,14 +7057,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46288-2022</t>
+          <t>A 26438-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44847.71168981482</v>
+        <v>45807</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7062,7 +7077,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7099,14 +7114,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46290-2022</t>
+          <t>A 45591-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44847</v>
+        <v>45194</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7119,7 +7134,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7156,14 +7171,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5286-2023</t>
+          <t>A 36795-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44959</v>
+        <v>45538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7176,7 +7191,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7213,14 +7228,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3-2023</t>
+          <t>A 26978-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44927</v>
+        <v>45811.48915509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7233,7 +7248,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7270,14 +7285,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 65004-2023</t>
+          <t>A 26968-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45287</v>
+        <v>45811.47616898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7290,7 +7305,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7327,14 +7342,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 65008-2023</t>
+          <t>A 26910-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45287</v>
+        <v>45811.35489583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7347,7 +7362,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7384,14 +7399,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3851-2025</t>
+          <t>A 27359-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45683.88302083333</v>
+        <v>45812.63760416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7404,7 +7419,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7441,14 +7456,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10635-2024</t>
+          <t>A 26967-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45367.44355324074</v>
+        <v>45811.47222222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7461,7 +7476,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7498,14 +7513,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26263-2023</t>
+          <t>A 15470-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45091.60797453704</v>
+        <v>45747</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7518,7 +7533,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7555,14 +7570,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46220-2021</t>
+          <t>A 58935-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44442.50498842593</v>
+        <v>45636</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7575,7 +7590,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7612,14 +7627,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44646-2024</t>
+          <t>A 57483-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45574</v>
+        <v>44896</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7631,8 +7646,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7669,14 +7689,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37169-2021</t>
+          <t>A 37620-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44395</v>
+        <v>45541</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7689,7 +7709,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7726,14 +7746,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1843-2025</t>
+          <t>A 15721-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45671.57612268518</v>
+        <v>45404.50292824074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7746,7 +7766,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7783,14 +7803,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6015-2023</t>
+          <t>A 29914-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44964.41993055555</v>
+        <v>45826.41162037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7803,7 +7823,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7840,14 +7860,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 53958-2024</t>
+          <t>A 2708-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45616</v>
+        <v>44942</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7860,7 +7880,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7897,14 +7917,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36305-2022</t>
+          <t>A 10634-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44803.65809027778</v>
+        <v>45367.43570601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7917,7 +7937,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7954,14 +7974,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20743-2024</t>
+          <t>A 39039-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45436</v>
+        <v>45548</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,8 +7993,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8011,14 +8036,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62667-2023</t>
+          <t>A 40742-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45271.45626157407</v>
+        <v>45897</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8031,7 +8056,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8068,14 +8093,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39492-2023</t>
+          <t>A 40731-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45166</v>
+        <v>45897</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,13 +8112,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>24.9</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8130,14 +8150,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17559-2021</t>
+          <t>A 46445-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44299</v>
+        <v>45582.49783564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8150,7 +8170,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8187,14 +8207,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 10374-2022</t>
+          <t>A 30260-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44623</v>
+        <v>45827</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8207,7 +8227,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8244,14 +8264,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53959-2024</t>
+          <t>A 12272-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45616</v>
+        <v>45378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8264,7 +8284,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8301,14 +8321,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4069-2025</t>
+          <t>A 12281-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45684</v>
+        <v>45378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8320,13 +8340,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8363,14 +8378,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 7586-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44489</v>
+        <v>45705</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8383,7 +8398,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8420,14 +8435,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35083-2024</t>
+          <t>A 30584-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45527.68989583333</v>
+        <v>45831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8440,7 +8455,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8477,14 +8492,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35084-2024</t>
+          <t>A 24635-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45527.69265046297</v>
+        <v>45460</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8497,7 +8512,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8534,14 +8549,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18336-2023</t>
+          <t>A 15472-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45041</v>
+        <v>45747</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8553,13 +8568,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8596,14 +8606,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 242-2024</t>
+          <t>A 15477-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45294</v>
+        <v>45747.54640046296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8615,13 +8625,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8658,14 +8663,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44677-2024</t>
+          <t>A 31559-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45574.54210648148</v>
+        <v>45833.65369212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8678,7 +8683,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8715,14 +8720,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33475-2024</t>
+          <t>A 57211-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45519</v>
+        <v>45629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8735,7 +8740,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8772,14 +8777,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27792-2023</t>
+          <t>A 2688-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45098.45302083333</v>
+        <v>44942</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8792,7 +8797,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8829,14 +8834,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 32839-2023</t>
+          <t>A 62669-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45109</v>
+        <v>45271.46321759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8849,7 +8854,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8886,14 +8891,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35611-2024</t>
+          <t>A 15039-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45531</v>
+        <v>44657.619375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8906,7 +8911,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8943,14 +8948,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12349-2025</t>
+          <t>A 32982-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45730</v>
+        <v>45839</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8962,8 +8967,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9000,14 +9010,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 32410-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44386</v>
+        <v>45838.33539351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9019,13 +9029,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9062,14 +9067,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8910-2025</t>
+          <t>A 5286-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45713</v>
+        <v>44959</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9082,7 +9087,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9119,14 +9124,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8916-2025</t>
+          <t>A 33913-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45713</v>
+        <v>45842</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9139,7 +9144,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9176,14 +9181,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13094-2025</t>
+          <t>A 33914-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45734</v>
+        <v>45842</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9196,7 +9201,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9233,14 +9238,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44660-2024</t>
+          <t>A 17473-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45574</v>
+        <v>45757.47975694444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9253,7 +9258,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9290,14 +9295,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20745-2024</t>
+          <t>A 1843-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45436</v>
+        <v>45671.57612268518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9310,7 +9315,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9347,14 +9352,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 44666-2024</t>
+          <t>A 35449-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45574.53435185185</v>
+        <v>45531</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9367,7 +9372,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9404,14 +9409,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 72073-2021</t>
+          <t>A 6015-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44544.50324074074</v>
+        <v>44964.41993055555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9424,7 +9429,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9461,14 +9466,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57967-2021</t>
+          <t>A 20743-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44487</v>
+        <v>45436</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9481,7 +9486,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9518,14 +9523,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53956-2024</t>
+          <t>A 39492-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45616</v>
+        <v>45166</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9537,8 +9542,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>24.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9575,14 +9585,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17816-2023</t>
+          <t>A 17559-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45037.58394675926</v>
+        <v>44299</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9595,7 +9605,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9632,14 +9642,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33566-2024</t>
+          <t>A 53959-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45520</v>
+        <v>45616</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9652,7 +9662,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9689,14 +9699,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 16596-2023</t>
+          <t>A 18336-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45030</v>
+        <v>45041</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9708,8 +9718,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9746,14 +9761,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56765-2021</t>
+          <t>A 45776-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44481.49040509259</v>
+        <v>45923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9766,7 +9781,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9803,14 +9818,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5754-2025</t>
+          <t>A 45786-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45694</v>
+        <v>45923.56116898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9823,7 +9838,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9860,14 +9875,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59012-2024</t>
+          <t>A 33475-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45636</v>
+        <v>45519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9880,7 +9895,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9917,14 +9932,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22798-2024</t>
+          <t>A 8910-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45448</v>
+        <v>45713</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9936,13 +9951,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9979,14 +9989,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10398-2025</t>
+          <t>A 8916-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45720</v>
+        <v>45713</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9999,7 +10009,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10036,14 +10046,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24568-2024</t>
+          <t>A 47789-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45460.44770833333</v>
+        <v>45931</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10056,7 +10066,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10093,14 +10103,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2-2023</t>
+          <t>A 47791-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44927.65268518519</v>
+        <v>45931</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10113,7 +10123,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10150,14 +10160,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 666-2023</t>
+          <t>A 47798-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44930</v>
+        <v>45931</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10170,7 +10180,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10207,14 +10217,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43285-2024</t>
+          <t>A 47804-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45568</v>
+        <v>45931</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10227,7 +10237,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10264,14 +10274,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 64374-2023</t>
+          <t>A 47801-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45280.55791666666</v>
+        <v>45931</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10284,7 +10294,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10321,14 +10331,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 17240-2025</t>
+          <t>A 72073-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45756.48184027777</v>
+        <v>44544.50324074074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10341,7 +10351,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10378,14 +10388,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3996-2022</t>
+          <t>A 47784-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44587</v>
+        <v>45931</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10398,7 +10408,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10435,14 +10445,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59061-2023</t>
+          <t>A 47788-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45252</v>
+        <v>45931</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10455,7 +10465,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10502,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 30951-2022</t>
+          <t>A 5754-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44768</v>
+        <v>45694</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10522,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10559,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34402-2022</t>
+          <t>A 37360-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44792.52918981481</v>
+        <v>45877</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10579,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>7.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10616,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20476-2024</t>
+          <t>A 59012-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45435.69123842593</v>
+        <v>45636</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10636,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10673,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 5758-2025</t>
+          <t>A 47722-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45694</v>
+        <v>45931</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10683,7 +10693,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10720,14 +10730,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14618-2025</t>
+          <t>A 10398-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45742</v>
+        <v>45720</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10740,7 +10750,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10777,14 +10787,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15470-2025</t>
+          <t>A 2-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45747</v>
+        <v>44927.65268518519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10797,7 +10807,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10834,14 +10844,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58935-2024</t>
+          <t>A 47704-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45636</v>
+        <v>45931</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10854,7 +10864,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10891,14 +10901,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13098-2025</t>
+          <t>A 47786-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45734</v>
+        <v>45931</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10911,7 +10921,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10948,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 12252-2024</t>
+          <t>A 47797-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45378</v>
+        <v>45931</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10968,7 +10978,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11005,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14921-2025</t>
+          <t>A 48427-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45743</v>
+        <v>45934</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11025,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11062,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5753-2025</t>
+          <t>A 34402-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45694</v>
+        <v>44792.52918981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11082,7 +11092,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11119,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3826-2025</t>
+          <t>A 12252-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45681.75200231482</v>
+        <v>45378</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11139,7 +11149,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11176,14 +11186,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57483-2022</t>
+          <t>A 14921-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44896</v>
+        <v>45743</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11195,13 +11205,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11238,14 +11243,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15962-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45749</v>
+        <v>44489</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11258,7 +11263,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11295,14 +11300,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 25435-2024</t>
+          <t>A 2990-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45463</v>
+        <v>44581.85012731481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11314,13 +11319,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11357,14 +11357,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37622-2024</t>
+          <t>A 2994-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45541</v>
+        <v>44581.86648148148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11414,14 +11414,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2990-2022</t>
+          <t>A 49591-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44581.85012731481</v>
+        <v>45939</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11471,14 +11471,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2994-2022</t>
+          <t>A 14507-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44581.86648148148</v>
+        <v>45741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11528,14 +11528,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 14507-2025</t>
+          <t>A 23794-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45741</v>
+        <v>45078</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11585,14 +11585,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11929-2023</t>
+          <t>A 6503-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44995.49393518519</v>
+        <v>45699</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11642,14 +11642,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7822-2024</t>
+          <t>A 8528-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45349.71133101852</v>
+        <v>45709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11699,14 +11699,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58679-2021</t>
+          <t>A 8541-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44489</v>
+        <v>45709.605</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11756,14 +11756,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23794-2023</t>
+          <t>A 50636-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45078</v>
+        <v>45945</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11813,14 +11813,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14732-2022</t>
+          <t>A 54177-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44655</v>
+        <v>45232</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11870,14 +11870,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8555-2025</t>
+          <t>A 249-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45709</v>
+        <v>44565</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11927,14 +11927,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6503-2025</t>
+          <t>A 39055-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45699</v>
+        <v>45548</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11946,8 +11946,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11984,14 +11989,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 8528-2025</t>
+          <t>A 52438-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45709</v>
+        <v>44874.4543287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12004,7 +12009,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12041,14 +12046,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8541-2025</t>
+          <t>A 42522-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45709.605</v>
+        <v>44427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12061,7 +12066,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12098,14 +12103,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54177-2023</t>
+          <t>A 17329-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45232</v>
+        <v>45756.64131944445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12118,7 +12123,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12155,14 +12160,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 22008-2025</t>
+          <t>A 52621-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45784</v>
+        <v>45953</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12175,7 +12180,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12212,14 +12217,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8911-2025</t>
+          <t>A 52622-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45713</v>
+        <v>45953</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12232,7 +12237,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12269,14 +12274,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 249-2022</t>
+          <t>A 14143-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44565</v>
+        <v>45392</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12289,7 +12294,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12326,14 +12331,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18049-2024</t>
+          <t>A 53498-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45420.38435185186</v>
+        <v>45230</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12346,7 +12351,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12383,14 +12388,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 39055-2024</t>
+          <t>A 17806-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45548</v>
+        <v>45037.57375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12402,13 +12407,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12445,14 +12445,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35817-2021</t>
+          <t>A 29615-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44386</v>
+        <v>44754</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12507,14 +12507,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 29698-2024</t>
+          <t>A 14739-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45484</v>
+        <v>45742.64630787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12564,14 +12564,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52438-2022</t>
+          <t>A 52697-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44874.4543287037</v>
+        <v>45956.7144675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12621,14 +12621,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42522-2021</t>
+          <t>A 52698-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44427</v>
+        <v>45956.72236111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12678,14 +12678,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45672-2024</t>
+          <t>A 12928-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45579</v>
+        <v>45734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12735,14 +12735,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 31032-2024</t>
+          <t>A 59944-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45501.41740740741</v>
+        <v>45642.33300925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12792,14 +12792,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31033-2024</t>
+          <t>A 1320-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45501.43387731481</v>
+        <v>44936</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12849,14 +12849,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17329-2025</t>
+          <t>A 59503-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45756.64131944445</v>
+        <v>44907.48916666667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12906,14 +12906,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50461-2024</t>
+          <t>A 52696-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45601.45766203704</v>
+        <v>45956.7075</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12963,14 +12963,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 27359-2025</t>
+          <t>A 30599-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45812.63760416667</v>
+        <v>45112</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.6</v>
+        <v>10.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13020,14 +13020,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 18948-2024</t>
+          <t>A 12215-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45427.49891203704</v>
+        <v>44266</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13039,8 +13039,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13077,14 +13082,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 11330-2024</t>
+          <t>A 64518-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45371</v>
+        <v>44511.61383101852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13096,13 +13101,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13139,14 +13139,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14143-2024</t>
+          <t>A 64193-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45392</v>
+        <v>44510.59939814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13196,14 +13196,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14954-2024</t>
+          <t>A 53841-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45398.85325231482</v>
+        <v>45961.36053240741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13253,14 +13253,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53498-2023</t>
+          <t>A 53839-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45230</v>
+        <v>45961.3575462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13310,14 +13310,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 65002-2023</t>
+          <t>A 54593-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45287</v>
+        <v>45965.74945601852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13367,14 +13367,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17806-2023</t>
+          <t>A 40853-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45037.57375</v>
+        <v>45558</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13424,14 +13424,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 29615-2022</t>
+          <t>A 38760-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44754</v>
+        <v>45163</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13443,13 +13443,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13486,14 +13481,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 14739-2025</t>
+          <t>A 25409-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45742.64630787037</v>
+        <v>45463</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13505,8 +13500,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>8.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13543,14 +13543,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 49604-2023</t>
+          <t>A 14651-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45207</v>
+        <v>45397</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13600,14 +13600,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 57220-2024</t>
+          <t>A 55444-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45629</v>
+        <v>45971.49379629629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13657,14 +13657,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 12928-2025</t>
+          <t>A 36971-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45734</v>
+        <v>45538.83505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.1</v>
+        <v>17.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13714,14 +13714,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59944-2024</t>
+          <t>A 10910-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45642.33300925926</v>
+        <v>44991</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13771,14 +13771,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 1320-2023</t>
+          <t>A 35083-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44936</v>
+        <v>45527.68989583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13828,14 +13828,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 59503-2022</t>
+          <t>A 35084-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44907.48916666667</v>
+        <v>45527.69265046297</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13885,14 +13885,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30599-2023</t>
+          <t>A 44660-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45112</v>
+        <v>45574</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>10.1</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13942,14 +13942,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 40742-2025</t>
+          <t>A 44666-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45897</v>
+        <v>45574.53435185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13999,14 +13999,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 12215-2021</t>
+          <t>A 57011-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44266</v>
+        <v>45978.80706018519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14061,14 +14061,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 59938-2024</t>
+          <t>A 25435-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45642.32818287037</v>
+        <v>45463</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14080,8 +14080,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14118,14 +14123,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40731-2025</t>
+          <t>A 56954-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45897</v>
+        <v>45978.65318287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14137,8 +14142,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14175,14 +14185,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 64518-2021</t>
+          <t>A 11929-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44511.61383101852</v>
+        <v>44995.49393518519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14195,7 +14205,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14232,14 +14242,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 64193-2021</t>
+          <t>A 58244-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44510.59939814815</v>
+        <v>45985</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14252,7 +14262,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14289,14 +14299,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15472-2025</t>
+          <t>A 14732-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45747</v>
+        <v>44655</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14309,7 +14319,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14346,14 +14356,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 15477-2025</t>
+          <t>A 8555-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45747.54640046296</v>
+        <v>45709</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14366,7 +14376,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14403,14 +14413,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 57211-2024</t>
+          <t>A 56957-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45629</v>
+        <v>45978</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14422,8 +14432,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14460,14 +14475,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 40853-2024</t>
+          <t>A 8911-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45558</v>
+        <v>45713</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14480,7 +14495,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14517,14 +14532,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38760-2023</t>
+          <t>A 18049-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45163</v>
+        <v>45420.38435185186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14537,7 +14552,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14574,14 +14589,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 45599-2023</t>
+          <t>A 43186-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45194.64255787037</v>
+        <v>45910</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14594,7 +14609,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14631,14 +14646,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 25409-2024</t>
+          <t>A 43194-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45463</v>
+        <v>45910</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14650,13 +14665,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14693,14 +14703,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14651-2024</t>
+          <t>A 29698-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45397</v>
+        <v>45484</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14713,7 +14723,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14750,14 +14760,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 11558-2025</t>
+          <t>A 45672-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45727.35804398148</v>
+        <v>45579</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14770,7 +14780,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14807,14 +14817,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 24494-2025</t>
+          <t>A 31032-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45798</v>
+        <v>45501.41740740741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14827,7 +14837,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14864,14 +14874,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 24247-2025</t>
+          <t>A 31033-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45797.39939814815</v>
+        <v>45501.43387731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14884,7 +14894,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14921,14 +14931,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 24262-2025</t>
+          <t>A 50461-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45797.42086805555</v>
+        <v>45601.45766203704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14941,7 +14951,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14978,14 +14988,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 8534-2025</t>
+          <t>A 3174-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45709</v>
+        <v>46041.44421296296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14998,7 +15008,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15035,14 +15045,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7368-2025</t>
+          <t>A 18948-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45704</v>
+        <v>45427.49891203704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15092,14 +15102,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 23786-2022</t>
+          <t>A 11330-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44722</v>
+        <v>45371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15111,8 +15121,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15149,14 +15164,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 45776-2025</t>
+          <t>A 61436-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45923</v>
+        <v>46001.56537037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15169,7 +15184,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15206,14 +15221,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21032-2023</t>
+          <t>A 49604-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45061.56636574074</v>
+        <v>45207</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15226,7 +15241,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15263,14 +15278,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 45786-2025</t>
+          <t>A 59938-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45923.56116898148</v>
+        <v>45642.32818287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15283,7 +15298,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15320,14 +15335,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 35453-2024</t>
+          <t>A 4743-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45531.45243055555</v>
+        <v>46048.5056712963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15340,7 +15355,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15377,14 +15392,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 55306-2024</t>
+          <t>A 8534-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45621</v>
+        <v>45709</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15397,7 +15412,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15434,14 +15449,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 26270-2022</t>
+          <t>A 7368-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44735.5222337963</v>
+        <v>45704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15454,7 +15469,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15491,14 +15506,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 22566-2025</t>
+          <t>A 23786-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45789</v>
+        <v>44722</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15511,7 +15526,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15548,14 +15563,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 53957-2024</t>
+          <t>A 21032-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45616</v>
+        <v>45061.56636574074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15568,7 +15583,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15605,14 +15620,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 57386-2024</t>
+          <t>A 55306-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15625,7 +15640,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15662,14 +15677,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26438-2025</t>
+          <t>A 26270-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45807</v>
+        <v>44735.5222337963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15682,7 +15697,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15719,14 +15734,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 45591-2023</t>
+          <t>A 53957-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45194</v>
+        <v>45616</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15739,7 +15754,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15776,14 +15791,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 36795-2024</t>
+          <t>A 57386-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45538</v>
+        <v>45629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15796,7 +15811,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15833,14 +15848,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 26978-2025</t>
+          <t>A 16868-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45811.48915509259</v>
+        <v>45754.88141203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15853,7 +15868,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15890,14 +15905,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 26968-2025</t>
+          <t>A 60201-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45811.47616898148</v>
+        <v>45642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15910,7 +15925,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15947,14 +15962,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 16868-2025</t>
+          <t>A 65007-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45754.88141203704</v>
+        <v>45287</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15967,7 +15982,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>9.6</v>
+        <v>14.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16004,14 +16019,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 26910-2025</t>
+          <t>A 16609-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45811.35489583333</v>
+        <v>45753</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16024,7 +16039,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16061,14 +16076,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 26967-2025</t>
+          <t>A 64140-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45811.47222222222</v>
+        <v>45279.5659375</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16081,7 +16096,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16118,14 +16133,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 47789-2025</t>
+          <t>A 63811-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45931</v>
+        <v>46020.32520833334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16138,7 +16153,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16175,14 +16190,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 47791-2025</t>
+          <t>A 28195-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45931</v>
+        <v>44746</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16194,8 +16209,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16232,14 +16252,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 47798-2025</t>
+          <t>A 58033-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45931</v>
+        <v>45247</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16252,7 +16272,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16289,14 +16309,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 47804-2025</t>
+          <t>A 34408-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45931</v>
+        <v>45525</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16309,7 +16329,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16346,14 +16366,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 47801-2025</t>
+          <t>A 12280-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45931</v>
+        <v>45378</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16366,7 +16386,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16403,14 +16423,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 47784-2025</t>
+          <t>A 18117-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45931</v>
+        <v>45761</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16423,7 +16443,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16460,14 +16480,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 47788-2025</t>
+          <t>A 48742-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45931</v>
+        <v>44452.61798611111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16480,7 +16500,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16517,14 +16537,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 47722-2025</t>
+          <t>A 6687-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45931</v>
+        <v>44966.65414351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16537,7 +16557,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16574,14 +16594,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 47704-2025</t>
+          <t>A 73251-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45931</v>
+        <v>44550</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16594,7 +16614,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16631,14 +16651,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 47786-2025</t>
+          <t>A 56641-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45931</v>
+        <v>45243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16651,7 +16671,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16688,14 +16708,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 47797-2025</t>
+          <t>A 61229-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45931</v>
+        <v>44915.56481481482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16708,7 +16728,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16745,14 +16765,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 48427-2025</t>
+          <t>A 17635-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45934</v>
+        <v>44680</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16765,7 +16785,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16802,14 +16822,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 60201-2024</t>
+          <t>A 36296-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45642</v>
+        <v>44803</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16822,7 +16842,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16859,14 +16879,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 65007-2023</t>
+          <t>A 2077-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45287</v>
+        <v>45309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16879,7 +16899,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>14.2</v>
+        <v>0.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16916,14 +16936,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 29914-2025</t>
+          <t>A 61210-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45826.41162037037</v>
+        <v>45264.3956712963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16936,7 +16956,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16973,14 +16993,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 49591-2025</t>
+          <t>A 57151-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45939</v>
+        <v>45245</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16993,7 +17013,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17030,14 +17050,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 16609-2025</t>
+          <t>A 969-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45753</v>
+        <v>44571.57540509259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17050,7 +17070,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17087,14 +17107,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 30260-2025</t>
+          <t>A 1332-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45827</v>
+        <v>46031.57333333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17107,7 +17127,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17144,14 +17164,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 50636-2025</t>
+          <t>A 1847-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45945</v>
+        <v>45671</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17164,7 +17184,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17201,14 +17221,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 64140-2023</t>
+          <t>A 10476-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45279.5659375</v>
+        <v>45720</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17220,8 +17240,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17258,14 +17283,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 30584-2025</t>
+          <t>A 31621-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45831</v>
+        <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17278,7 +17303,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17315,14 +17340,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 28195-2022</t>
+          <t>A 2314-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44746</v>
+        <v>44578.78197916667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17334,13 +17359,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17377,14 +17397,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 58033-2023</t>
+          <t>A 46998-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45247</v>
+        <v>45586.37576388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17397,7 +17417,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17434,14 +17454,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 34408-2024</t>
+          <t>A 2263-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45525</v>
+        <v>44941</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17454,7 +17474,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17491,14 +17511,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 31559-2025</t>
+          <t>A 50252-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45833.65369212963</v>
+        <v>45600.57181712963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17511,7 +17531,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17548,14 +17568,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 12280-2024</t>
+          <t>A 4832-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45378</v>
+        <v>44592.81854166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17568,7 +17588,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17605,14 +17625,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 18117-2025</t>
+          <t>A 38835-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45761</v>
+        <v>45547</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17625,7 +17645,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17662,14 +17682,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 52621-2025</t>
+          <t>A 59871-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45953</v>
+        <v>45640</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17682,7 +17702,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17719,14 +17739,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 52622-2025</t>
+          <t>A 2309-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45953</v>
+        <v>45310</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17739,7 +17759,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17776,14 +17796,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 48742-2021</t>
+          <t>A 2306-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44452.61798611111</v>
+        <v>45310.46356481482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17796,7 +17816,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17833,14 +17853,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6687-2023</t>
+          <t>A 59200-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44966.65414351852</v>
+        <v>45253</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17853,7 +17873,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17890,14 +17910,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 52697-2025</t>
+          <t>A 3851-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45956.7144675926</v>
+        <v>45683.88302083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17910,7 +17930,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17947,14 +17967,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52698-2025</t>
+          <t>A 26263-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45956.72236111111</v>
+        <v>45091.60797453704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17967,7 +17987,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18004,14 +18024,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 32982-2025</t>
+          <t>A 46220-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45839</v>
+        <v>44442.50498842593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18023,13 +18043,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18066,14 +18081,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 32410-2025</t>
+          <t>A 44646-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45838.33539351852</v>
+        <v>45574</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18086,7 +18101,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18123,14 +18138,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 73251-2021</t>
+          <t>A 37169-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44550</v>
+        <v>44395</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18180,14 +18195,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 52696-2025</t>
+          <t>A 53958-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45956.7075</v>
+        <v>45616</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18200,7 +18215,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18237,14 +18252,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 56641-2023</t>
+          <t>A 36305-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45243</v>
+        <v>44803.65809027778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18257,7 +18272,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18294,14 +18309,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 61229-2022</t>
+          <t>A 10374-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44915.56481481482</v>
+        <v>44623</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18314,7 +18329,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18351,14 +18366,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 17635-2022</t>
+          <t>A 4069-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44680</v>
+        <v>45684</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18370,8 +18385,13 @@
           <t>KIL</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18408,14 +18428,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 53841-2025</t>
+          <t>A 58679-2021</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45961.36053240741</v>
+        <v>44489</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18428,7 +18448,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18465,14 +18485,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 33913-2025</t>
+          <t>A 27792-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45842</v>
+        <v>45098.45302083333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18485,7 +18505,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18522,14 +18542,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 36296-2022</t>
+          <t>A 32839-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44803</v>
+        <v>45109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18542,7 +18562,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18579,14 +18599,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 53839-2025</t>
+          <t>A 12349-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45961.3575462963</v>
+        <v>45730</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18599,7 +18619,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18636,14 +18656,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 2077-2024</t>
+          <t>A 53956-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45309</v>
+        <v>45616</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18656,7 +18676,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18693,14 +18713,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 61210-2023</t>
+          <t>A 17816-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45264.3956712963</v>
+        <v>45037.58394675926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18713,7 +18733,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18750,14 +18770,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 33914-2025</t>
+          <t>A 33566-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45842</v>
+        <v>45520</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18770,7 +18790,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18807,14 +18827,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 17473-2025</t>
+          <t>A 16596-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45757.47975694444</v>
+        <v>45030</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18827,7 +18847,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18864,14 +18884,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 57151-2023</t>
+          <t>A 24568-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45245</v>
+        <v>45460.44770833333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18884,7 +18904,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18921,14 +18941,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 54593-2025</t>
+          <t>A 43285-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45965.74945601852</v>
+        <v>45568</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18941,7 +18961,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18978,14 +18998,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 35449-2024</t>
+          <t>A 64374-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45531</v>
+        <v>45280.55791666666</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18998,7 +19018,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19035,14 +19055,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 55444-2025</t>
+          <t>A 17240-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45971.49379629629</v>
+        <v>45756.48184027777</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19055,7 +19075,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19092,14 +19112,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 1847-2025</t>
+          <t>A 59061-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45671</v>
+        <v>45252</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19112,7 +19132,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19149,14 +19169,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 57011-2025</t>
+          <t>A 30951-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45978.80706018519</v>
+        <v>44768</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19168,13 +19188,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19211,14 +19226,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10476-2025</t>
+          <t>A 5758-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45720</v>
+        <v>45694</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19230,13 +19245,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19273,14 +19283,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 56954-2025</t>
+          <t>A 14618-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45978.65318287037</v>
+        <v>45742</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19292,13 +19302,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19335,14 +19340,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 58244-2025</t>
+          <t>A 13098-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45985</v>
+        <v>45734</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19355,7 +19360,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19392,14 +19397,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 56957-2025</t>
+          <t>A 5753-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45978</v>
+        <v>45694</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19411,13 +19416,8 @@
           <t>KIL</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19454,14 +19454,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 37360-2025</t>
+          <t>A 3826-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45877</v>
+        <v>45681.75200231482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19511,14 +19511,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 43186-2025</t>
+          <t>A 15962-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45910</v>
+        <v>45749</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19568,14 +19568,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 43194-2025</t>
+          <t>A 37622-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45910</v>
+        <v>45541</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19625,14 +19625,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 31621-2022</t>
+          <t>A 7822-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44775</v>
+        <v>45349.71133101852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19682,14 +19682,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 2314-2022</t>
+          <t>A 22008-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44578.78197916667</v>
+        <v>45784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19739,14 +19739,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 3174-2026</t>
+          <t>A 14954-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>46041.44421296296</v>
+        <v>45398.85325231482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19796,14 +19796,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 46998-2024</t>
+          <t>A 65002-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45586.37576388889</v>
+        <v>45287</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19853,14 +19853,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 2263-2023</t>
+          <t>A 57220-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44941</v>
+        <v>45629</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19910,14 +19910,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 61436-2025</t>
+          <t>A 45599-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>46001.56537037037</v>
+        <v>45194.64255787037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19967,14 +19967,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 4743-2026</t>
+          <t>A 11558-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>46048.5056712963</v>
+        <v>45727.35804398148</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20024,14 +20024,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 63811-2025</t>
+          <t>A 24494-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>46020.32520833334</v>
+        <v>45798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20081,14 +20081,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 969-2022</t>
+          <t>A 24247-2025</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44571.57540509259</v>
+        <v>45797.39939814815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 1332-2026</t>
+          <t>A 24262-2025</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>46031.57333333333</v>
+        <v>45797.42086805555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -575,7 +575,7 @@
         <v>45190</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44809</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44914</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>45907</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45713</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45544</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45093</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>44511.6452199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44382</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44461</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44675.64548611111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44285.37357638889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44501</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>44410</v>
    